--- a/src/results.xlsx
+++ b/src/results.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="true" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smart\Documents\GitRepos\MusicGenreRecognizer\src\"/>
@@ -10,16 +10,16 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F3385A-64DC-482F-9136-A403CB00BD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Sheet1A1H1511" hidden="1">Sheet1!$A$1:$H$151</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Sheet1A1H1511" hidden="true">Sheet1!$A$1:$H$151</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
   <pivotCaches>
     <pivotCache cacheId="45" r:id="rId3"/>
   </pivotCaches>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="394">
   <si>
     <t>Normalization function</t>
   </si>
@@ -668,6 +668,579 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Distance function</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
   </si>
 </sst>
 </file>
@@ -688,7 +1261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -696,17 +1269,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,105 +2124,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD791F3-E896-4161-AAFC-CD3861A395D6}">
-  <dimension ref="A3:CC17"/>
+  <dimension ref="A1:CC151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="BW1" workbookViewId="0">
       <selection activeCell="AZ7" sqref="AZ7:BX16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="22" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="16.5703125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="8.28515625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" bestFit="true" customWidth="true"/>
+    <col min="9" max="9" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="10" max="10" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="11" max="11" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="12" max="12" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="13" max="13" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="14" max="14" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="15" max="15" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="16" max="16" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="17" max="17" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="18" max="18" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="19" max="19" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="20" max="20" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="21" max="21" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="22" max="22" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="23" max="23" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="24" max="24" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="25" max="25" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="26" max="26" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="27" max="27" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="28" max="28" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="29" max="29" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="30" max="30" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="31" max="31" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="32" max="32" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="33" max="33" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="34" max="34" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="35" max="35" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="36" max="36" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="37" max="37" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="38" max="38" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="39" max="39" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="40" max="40" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="41" max="41" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="42" max="42" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="43" max="43" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="44" max="44" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="45" max="45" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="46" max="46" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="47" max="47" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="48" max="48" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="49" max="49" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="50" max="50" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="51" max="51" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="52" max="52" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="53" max="53" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="54" max="54" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="55" max="55" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="56" max="56" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="57" max="57" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="58" max="58" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="59" max="59" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="60" max="60" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="61" max="61" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="62" max="62" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="63" max="63" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="64" max="64" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="65" max="65" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="66" max="66" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="67" max="67" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="68" max="68" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="69" max="69" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="70" max="70" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="71" max="71" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="72" max="72" width="12.85546875" bestFit="true" customWidth="true"/>
+    <col min="73" max="73" width="16.85546875" bestFit="true" customWidth="true"/>
+    <col min="74" max="74" width="18.42578125" bestFit="true" customWidth="true"/>
+    <col min="75" max="75" width="18.5703125" bestFit="true" customWidth="true"/>
+    <col min="76" max="76" width="18.7109375" bestFit="true" customWidth="true"/>
+    <col min="77" max="77" width="18" bestFit="true" customWidth="true"/>
+    <col min="78" max="78" width="22" bestFit="true" customWidth="true"/>
+    <col min="79" max="79" width="23.42578125" bestFit="true" customWidth="true"/>
+    <col min="80" max="80" width="23.5703125" bestFit="true" customWidth="true"/>
+    <col min="81" max="81" width="23.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:81">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.45360824742268036</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>204</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:81">
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>209</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="0">
+        <v>54.39622641509434</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.3125</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.45360824742268036</v>
       </c>
       <c r="AA4" t="s">
         <v>3</v>
@@ -1671,12 +2340,30 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:81">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="0">
+        <v>54.39622641509434</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.3125</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.46153846153846156</v>
       </c>
       <c r="L5" t="s">
         <v>5</v>
@@ -1718,30 +2405,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:81">
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6" t="s">
-        <v>196</v>
+        <v>204</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="0">
+        <v>12.176100628930818</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.61006289308176098</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.74590163934426235</v>
       </c>
       <c r="I6" t="s">
         <v>198</v>
@@ -1948,30 +2635,30 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:81">
+    <row r="7">
       <c r="A7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7" s="3">
-        <v>26.572327044025158</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.50314465408805031</v>
+        <v>204</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="D7" s="3">
-        <v>0.5625</v>
+        <v>0.0062893081761006293</v>
       </c>
       <c r="E7" s="3">
-        <v>0.49650349650349651</v>
+        <v>0.96855345911949686</v>
       </c>
       <c r="F7" s="3">
-        <v>0.64253393665158365</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="G7" s="3">
-        <v>26.572327044025158</v>
+        <v>0.97972972972972971</v>
       </c>
       <c r="H7" s="3">
-        <v>0.50314465408805031</v>
+        <v>0.98305084745762705</v>
       </c>
       <c r="I7" s="3">
         <v>0.5625</v>
@@ -2193,30 +2880,30 @@
         <v>10.053120102879065</v>
       </c>
     </row>
-    <row r="8" spans="1:81">
+    <row r="8">
       <c r="A8" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.76100628930817615</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.8176100628930818</v>
+        <v>204</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="D8" s="3">
-        <v>0.52631578947368418</v>
+        <v>0.0062893081761006293</v>
       </c>
       <c r="E8" s="3">
-        <v>0.8571428571428571</v>
+        <v>0.96855345911949686</v>
       </c>
       <c r="F8" s="3">
-        <v>0.89219330855018575</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="G8" s="3">
-        <v>2.5157232704402517E-2</v>
+        <v>0.97972972972972971</v>
       </c>
       <c r="H8" s="3">
-        <v>0.86163522012578619</v>
+        <v>0.98305084745762705</v>
       </c>
       <c r="I8" s="3">
         <v>0.36842105263157893</v>
@@ -2438,30 +3125,30 @@
         <v>13.871337899004978</v>
       </c>
     </row>
-    <row r="9" spans="1:81">
+    <row r="9">
       <c r="A9" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="3">
-        <v>21.157232704402517</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.59748427672955973</v>
+        <v>204</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="D9" s="3">
-        <v>0.7857142857142857</v>
+        <v>0.0062893081761006293</v>
       </c>
       <c r="E9" s="3">
-        <v>0.57931034482758625</v>
+        <v>0.96855345911949686</v>
       </c>
       <c r="F9" s="3">
-        <v>0.72413793103448276</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="G9" s="3">
-        <v>24.962264150943398</v>
+        <v>0.97972972972972971</v>
       </c>
       <c r="H9" s="3">
-        <v>0.56603773584905659</v>
+        <v>0.98305084745762705</v>
       </c>
       <c r="I9" s="3">
         <v>0.7857142857142857</v>
@@ -2683,30 +3370,30 @@
         <v>9.9798525383109826</v>
       </c>
     </row>
-    <row r="10" spans="1:81">
+    <row r="10">
       <c r="A10" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="3">
-        <v>12.735849056603774</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.62893081761006286</v>
+        <v>204</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="D10" s="3">
-        <v>0.3</v>
+        <v>0.0062893081761006293</v>
       </c>
       <c r="E10" s="3">
-        <v>0.65100671140939592</v>
+        <v>0.96855345911949686</v>
       </c>
       <c r="F10" s="3">
-        <v>0.76679841897233203</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="G10" s="3">
-        <v>13.89308176100629</v>
+        <v>0.97972972972972971</v>
       </c>
       <c r="H10" s="3">
-        <v>0.61635220125786161</v>
+        <v>0.98305084745762705</v>
       </c>
       <c r="I10" s="3">
         <v>0.3</v>
@@ -2928,30 +3615,30 @@
         <v>11.333107836622759</v>
       </c>
     </row>
-    <row r="11" spans="1:81">
+    <row r="11">
       <c r="A11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6.4402515723270444</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.68553459119496851</v>
+        <v>204</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="D11" s="3">
-        <v>0.47058823529411764</v>
+        <v>0.10062893081761007</v>
       </c>
       <c r="E11" s="3">
-        <v>0.71126760563380287</v>
+        <v>0.93710691823899372</v>
       </c>
       <c r="F11" s="3">
-        <v>0.80158730158730174</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G11" s="3">
-        <v>6.8490566037735849</v>
+        <v>0.95270270270270274</v>
       </c>
       <c r="H11" s="3">
-        <v>0.69182389937106914</v>
+        <v>0.96575342465753422</v>
       </c>
       <c r="I11" s="3">
         <v>0.52941176470588236</v>
@@ -3173,30 +3860,30 @@
         <v>12.174995490727317</v>
       </c>
     </row>
-    <row r="12" spans="1:81">
+    <row r="12">
       <c r="A12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="3">
-        <v>13.89308176100629</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.65408805031446537</v>
+        <v>204</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="D12" s="3">
+        <v>46.515723270440255</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.4088050314465409</v>
+      </c>
+      <c r="F12" s="3">
         <v>0.73333333333333328</v>
       </c>
-      <c r="E12" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.77178423236514526</v>
-      </c>
       <c r="G12" s="3">
-        <v>15.723270440251572</v>
+        <v>0.375</v>
       </c>
       <c r="H12" s="3">
-        <v>0.63522012578616349</v>
+        <v>0.53465346534653468</v>
       </c>
       <c r="I12" s="3">
         <v>0.73333333333333328</v>
@@ -3418,30 +4105,30 @@
         <v>11.431372759221082</v>
       </c>
     </row>
-    <row r="13" spans="1:81">
+    <row r="13">
       <c r="A13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="3">
-        <v>10.572327044025156</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.61635220125786161</v>
+        <v>204</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="D13" s="3">
-        <v>0.44444444444444442</v>
+        <v>47.60377358490566</v>
       </c>
       <c r="E13" s="3">
-        <v>0.63829787234042556</v>
+        <v>0.41509433962264153</v>
       </c>
       <c r="F13" s="3">
-        <v>0.74688796680497926</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G13" s="3">
-        <v>6.4402515723270444</v>
+        <v>0.375</v>
       </c>
       <c r="H13" s="3">
-        <v>0.67295597484276726</v>
+        <v>0.537313432835821</v>
       </c>
       <c r="I13" s="3">
         <v>0.44444444444444442</v>
@@ -3663,30 +4350,30 @@
         <v>12.192687317901935</v>
       </c>
     </row>
-    <row r="14" spans="1:81">
+    <row r="14">
       <c r="A14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5.2893081761006293</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.69182389937106914</v>
+        <v>204</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="D14" s="3">
-        <v>0.47368421052631576</v>
+        <v>46.515723270440255</v>
       </c>
       <c r="E14" s="3">
-        <v>0.72142857142857142</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F14" s="3">
-        <v>0.80478087649402386</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G14" s="3">
-        <v>6.4402515723270444</v>
+        <v>0.375</v>
       </c>
       <c r="H14" s="3">
-        <v>0.68553459119496851</v>
+        <v>0.53465346534653468</v>
       </c>
       <c r="I14" s="3">
         <v>0.52631578947368418</v>
@@ -3908,30 +4595,30 @@
         <v>12.32678372842744</v>
       </c>
     </row>
-    <row r="15" spans="1:81">
+    <row r="15">
       <c r="A15" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="3">
-        <v>19.025157232704402</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.52830188679245282</v>
+        <v>204</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="D15" s="3">
-        <v>0.44444444444444442</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E15" s="3">
-        <v>0.53900709219858156</v>
+        <v>0.35849056603773582</v>
       </c>
       <c r="F15" s="3">
-        <v>0.66960352422907488</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G15" s="3">
-        <v>36.327044025157235</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="H15" s="3">
-        <v>0.47169811320754718</v>
+        <v>0.47422680412371127</v>
       </c>
       <c r="I15" s="3">
         <v>0.77777777777777779</v>
@@ -4153,30 +4840,30 @@
         <v>9.6862482924603182</v>
       </c>
     </row>
-    <row r="16" spans="1:81">
+    <row r="16">
       <c r="A16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="3">
-        <v>32.60377358490566</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.49685534591194969</v>
+        <v>204</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="D16" s="3">
-        <v>0.69230769230769229</v>
+        <v>8.6100628930817606</v>
       </c>
       <c r="E16" s="3">
-        <v>0.47945205479452052</v>
+        <v>0.74213836477987416</v>
       </c>
       <c r="F16" s="3">
-        <v>0.63636363636363635</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G16" s="3">
-        <v>34.440251572327043</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="H16" s="3">
-        <v>0.48427672955974843</v>
+        <v>0.83665338645418319</v>
       </c>
       <c r="I16" s="3">
         <v>0.69230769230769229</v>
@@ -4398,30 +5085,30 @@
         <v>9.5396064268158636</v>
       </c>
     </row>
-    <row r="17" spans="1:81">
+    <row r="17">
       <c r="A17" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B17" s="3">
-        <v>149.0503144654088</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6.2201257861635222</v>
+        <v>204</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="D17" s="3">
-        <v>5.4333324355383184</v>
+        <v>41.264150943396224</v>
       </c>
       <c r="E17" s="3">
-        <v>6.3192499396125719</v>
+        <v>0.45283018867924529</v>
       </c>
       <c r="F17" s="3">
-        <v>7.4566711330527458</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="G17" s="3">
-        <v>171.67295597484275</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="H17" s="3">
-        <v>6.1886792452830175</v>
+        <v>0.56281407035175879</v>
       </c>
       <c r="I17" s="3">
         <v>5.7202261403886787</v>
@@ -4641,6 +5328,3490 @@
       </c>
       <c r="CC17" s="3">
         <v>112.58911239237167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D18" s="0">
+        <v>43.327044025157235</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.44025157232704404</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.38571428571428573</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.54822335025380708</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="0">
+        <v>41.264150943396224</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.45283018867924529</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.56281407035175879</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="0">
+        <v>39.251572327044023</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.45283018867924529</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.40714285714285714</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.56716417910447758</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="0">
+        <v>14.490566037735849</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.61006289308176098</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.73275862068965514</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="0">
+        <v>44.377358490566039</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.45911949685534592</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.4178082191780822</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.58653846153846156</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="0">
+        <v>44.377358490566039</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.45911949685534592</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.4178082191780822</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.58653846153846156</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="0">
+        <v>44.377358490566039</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.45911949685534592</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.4178082191780822</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.58653846153846156</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" s="0">
+        <v>43.327044025157235</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.46540880503144655</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.42465753424657532</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.59330143540669855</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="0">
+        <v>10.062893081761006</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.68553459119496851</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.69178082191780821</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.80158730158730163</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="0">
+        <v>4.9308176100628929</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.72327044025157228</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.83076923076923082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D28" s="0">
+        <v>5.6603773584905657</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.71069182389937102</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.82170542635658916</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D29" s="0">
+        <v>4.9308176100628929</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.72327044025157228</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.83076923076923082</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D30" s="0">
+        <v>4.2515723270440251</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.73584905660377353</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.83969465648854957</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="D31" s="0">
+        <v>11.09433962264151</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.69811320754716977</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.6875</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.80487804878048774</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.50943396226415094</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.85534591194968557</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.88405797101449279</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.91385767790262173</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.90566037735849059</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.83647798742138368</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0.8623188405797102</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.9015151515151516</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.50943396226415094</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.85534591194968557</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0.88405797101449279</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.91385767790262173</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D35" s="0">
+        <v>2.2704402515723272</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.77987421383647804</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.80434782608695654</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.86381322957198448</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.50943396226415094</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.88050314465408808</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.76190476190476186</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0.89855072463768115</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.92883895131086147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" s="0">
+        <v>23.40251572327044</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.60377358490566035</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.54744525547445255</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.70422535211267601</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="0">
+        <v>24.176100628930818</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.61006289308176098</v>
+      </c>
+      <c r="F38" s="0">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0.54744525547445255</v>
+      </c>
+      <c r="H38" s="0">
+        <v>0.70754716981132082</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" s="0">
+        <v>23.40251572327044</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.60377358490566035</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0.54744525547445255</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.70422535211267601</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40" s="0">
+        <v>24.176100628930818</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.59748427672955973</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0.54014598540145986</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.69811320754716977</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="D41" s="0">
+        <v>9.566037735849056</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.71698113207547165</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="G41" s="0">
+        <v>0.69343065693430661</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.80851063829787229</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D42" s="0">
+        <v>41.264150943396224</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.44025157232704404</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0.40140845070422537</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.56157635467980294</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="0">
+        <v>41.264150943396224</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.44025157232704404</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G43" s="0">
+        <v>0.40140845070422537</v>
+      </c>
+      <c r="H43" s="0">
+        <v>0.56157635467980294</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="0">
+        <v>41.264150943396224</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0.44025157232704404</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G44" s="0">
+        <v>0.40140845070422537</v>
+      </c>
+      <c r="H44" s="0">
+        <v>0.56157635467980294</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D45" s="0">
+        <v>40.251572327044023</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0.44654088050314467</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G45" s="0">
+        <v>0.40845070422535212</v>
+      </c>
+      <c r="H45" s="0">
+        <v>0.56862745098039214</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D46" s="0">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0.60377358490566035</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="G46" s="0">
+        <v>0.59154929577464788</v>
+      </c>
+      <c r="H46" s="0">
+        <v>0.72727272727272718</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D47" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G47" s="0">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H47" s="0">
+        <v>0.54634146341463408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G48" s="0">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H48" s="0">
+        <v>0.54634146341463408</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D49" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G49" s="0">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="H49" s="0">
+        <v>0.54634146341463408</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="0">
+        <v>49.817610062893081</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0.42767295597484278</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G50" s="0">
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="H50" s="0">
+        <v>0.56038647342995163</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="D51" s="0">
+        <v>34.440251572327043</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0.49685534591194969</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G51" s="0">
+        <v>0.47972972972972971</v>
+      </c>
+      <c r="H51" s="0">
+        <v>0.63963963963963966</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D52" s="0">
+        <v>60.40251572327044</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="0">
+        <v>0.20437956204379562</v>
+      </c>
+      <c r="H52" s="0">
+        <v>0.31818181818181823</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D53" s="0">
+        <v>61.641509433962263</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.25157232704402516</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G53" s="0">
+        <v>0.20437956204379562</v>
+      </c>
+      <c r="H53" s="0">
+        <v>0.32000000000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D54" s="0">
+        <v>60.40251572327044</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="0">
+        <v>0.20437956204379562</v>
+      </c>
+      <c r="H54" s="0">
+        <v>0.31818181818181823</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D55" s="0">
+        <v>61.641509433962263</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.25157232704402516</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="G55" s="0">
+        <v>0.20437956204379562</v>
+      </c>
+      <c r="H55" s="0">
+        <v>0.32000000000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="D56" s="0">
+        <v>4.2515723270440251</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0.72327044025157228</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="G56" s="0">
+        <v>0.74452554744525545</v>
+      </c>
+      <c r="H56" s="0">
+        <v>0.82258064516129026</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0.025157232704402517</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G57" s="0">
+        <v>0.97278911564625847</v>
+      </c>
+      <c r="H57" s="0">
+        <v>0.97945205479452058</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0.025157232704402517</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G58" s="0">
+        <v>0.97278911564625847</v>
+      </c>
+      <c r="H58" s="0">
+        <v>0.97945205479452058</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.025157232704402517</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G59" s="0">
+        <v>0.97278911564625847</v>
+      </c>
+      <c r="H59" s="0">
+        <v>0.97945205479452058</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0.025157232704402517</v>
+      </c>
+      <c r="E60" s="0">
+        <v>0.96226415094339623</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G60" s="0">
+        <v>0.97278911564625847</v>
+      </c>
+      <c r="H60" s="0">
+        <v>0.97945205479452058</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.056603773584905662</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.96855345911949686</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G61" s="0">
+        <v>0.99319727891156462</v>
+      </c>
+      <c r="H61" s="0">
+        <v>0.98316498316498313</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" s="0">
+        <v>65.433962264150949</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G62" s="0">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H62" s="0">
+        <v>0.43010752688172038</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D63" s="0">
+        <v>65.433962264150949</v>
+      </c>
+      <c r="E63" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F63" s="0">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G63" s="0">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H63" s="0">
+        <v>0.43010752688172038</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D64" s="0">
+        <v>65.433962264150949</v>
+      </c>
+      <c r="E64" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F64" s="0">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G64" s="0">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="H64" s="0">
+        <v>0.43010752688172038</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D65" s="0">
+        <v>62.893081761006286</v>
+      </c>
+      <c r="E65" s="0">
+        <v>0.34591194968553457</v>
+      </c>
+      <c r="F65" s="0">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="G65" s="0">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="H65" s="0">
+        <v>0.44680851063829791</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" s="0">
+        <v>36.327044025157235</v>
+      </c>
+      <c r="E66" s="0">
+        <v>0.47169811320754718</v>
+      </c>
+      <c r="F66" s="0">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="G66" s="0">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H66" s="0">
+        <v>0.60377358490566035</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D67" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E67" s="0">
+        <v>0.4088050314465409</v>
+      </c>
+      <c r="F67" s="0">
+        <v>1</v>
+      </c>
+      <c r="G67" s="0">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="H67" s="0">
+        <v>0.50526315789473686</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D68" s="0">
+        <v>56.761006289308177</v>
+      </c>
+      <c r="E68" s="0">
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="F68" s="0">
+        <v>1</v>
+      </c>
+      <c r="G68" s="0">
+        <v>0.33098591549295775</v>
+      </c>
+      <c r="H68" s="0">
+        <v>0.49735449735449738</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D69" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E69" s="0">
+        <v>0.4088050314465409</v>
+      </c>
+      <c r="F69" s="0">
+        <v>1</v>
+      </c>
+      <c r="G69" s="0">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="H69" s="0">
+        <v>0.50526315789473686</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D70" s="0">
+        <v>53.232704402515722</v>
+      </c>
+      <c r="E70" s="0">
+        <v>0.42138364779874216</v>
+      </c>
+      <c r="F70" s="0">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0">
+        <v>0.352112676056338</v>
+      </c>
+      <c r="H70" s="0">
+        <v>0.52083333333333326</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="D71" s="0">
+        <v>25.761006289308177</v>
+      </c>
+      <c r="E71" s="0">
+        <v>0.55974842767295596</v>
+      </c>
+      <c r="F71" s="0">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="G71" s="0">
+        <v>0.528169014084507</v>
+      </c>
+      <c r="H71" s="0">
+        <v>0.68181818181818177</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" s="0">
+        <v>53.232704402515722</v>
+      </c>
+      <c r="E72" s="0">
+        <v>0.39622641509433965</v>
+      </c>
+      <c r="F72" s="0">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="G72" s="0">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="H72" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E73" s="0">
+        <v>0.38364779874213839</v>
+      </c>
+      <c r="F73" s="0">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="G73" s="0">
+        <v>0.323943661971831</v>
+      </c>
+      <c r="H73" s="0">
+        <v>0.48421052631578942</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D74" s="0">
+        <v>53.232704402515722</v>
+      </c>
+      <c r="E74" s="0">
+        <v>0.39622641509433965</v>
+      </c>
+      <c r="F74" s="0">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="G74" s="0">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="H74" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D75" s="0">
+        <v>53.232704402515722</v>
+      </c>
+      <c r="E75" s="0">
+        <v>0.39622641509433965</v>
+      </c>
+      <c r="F75" s="0">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="G75" s="0">
+        <v>0.3380281690140845</v>
+      </c>
+      <c r="H75" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="D76" s="0">
+        <v>45.440251572327043</v>
+      </c>
+      <c r="E76" s="0">
+        <v>0.44025157232704404</v>
+      </c>
+      <c r="F76" s="0">
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="G76" s="0">
+        <v>0.38732394366197181</v>
+      </c>
+      <c r="H76" s="0">
+        <v>0.55276381909547734</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D77" s="0">
+        <v>1.0628930817610063</v>
+      </c>
+      <c r="E77" s="0">
+        <v>0.80503144654088055</v>
+      </c>
+      <c r="F77" s="0">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="G77" s="0">
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="H77" s="0">
+        <v>0.88389513108614226</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D78" s="0">
+        <v>1.0628930817610063</v>
+      </c>
+      <c r="E78" s="0">
+        <v>0.80503144654088055</v>
+      </c>
+      <c r="F78" s="0">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="G78" s="0">
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="H78" s="0">
+        <v>0.88389513108614226</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" s="0">
+        <v>1.0628930817610063</v>
+      </c>
+      <c r="E79" s="0">
+        <v>0.80503144654088055</v>
+      </c>
+      <c r="F79" s="0">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="G79" s="0">
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="H79" s="0">
+        <v>0.88389513108614226</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D80" s="0">
+        <v>1.4150943396226414</v>
+      </c>
+      <c r="E80" s="0">
+        <v>0.79245283018867929</v>
+      </c>
+      <c r="F80" s="0">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="G80" s="0">
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="H80" s="0">
+        <v>0.87547169811320757</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" s="0">
+        <v>4.2515723270440251</v>
+      </c>
+      <c r="E81" s="0">
+        <v>0.76100628930817615</v>
+      </c>
+      <c r="F81" s="0">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="G81" s="0">
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="H81" s="0">
+        <v>0.85039370078740162</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E82" s="0">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="F82" s="0">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G82" s="0">
+        <v>0.34459459459459457</v>
+      </c>
+      <c r="H82" s="0">
+        <v>0.50495049504950495</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D83" s="0">
+        <v>16.358490566037737</v>
+      </c>
+      <c r="E83" s="0">
+        <v>0.65408805031446537</v>
+      </c>
+      <c r="F83" s="0">
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="G83" s="0">
+        <v>0.64189189189189189</v>
+      </c>
+      <c r="H83" s="0">
+        <v>0.77551020408163274</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E84" s="0">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="F84" s="0">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G84" s="0">
+        <v>0.34459459459459457</v>
+      </c>
+      <c r="H84" s="0">
+        <v>0.50495049504950495</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D85" s="0">
+        <v>59.176100628930818</v>
+      </c>
+      <c r="E85" s="0">
+        <v>0.3522012578616352</v>
+      </c>
+      <c r="F85" s="0">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G85" s="0">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="H85" s="0">
+        <v>0.48241206030150757</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="D86" s="0">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E86" s="0">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="F86" s="0">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G86" s="0">
+        <v>0.91891891891891897</v>
+      </c>
+      <c r="H86" s="0">
+        <v>0.93793103448275872</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D87" s="0">
+        <v>45.440251572327043</v>
+      </c>
+      <c r="E87" s="0">
+        <v>0.46540880503144655</v>
+      </c>
+      <c r="F87" s="0">
+        <v>1</v>
+      </c>
+      <c r="G87" s="0">
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="H87" s="0">
+        <v>0.58536585365853655</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D88" s="0">
+        <v>42.289308176100626</v>
+      </c>
+      <c r="E88" s="0">
+        <v>0.48427672955974843</v>
+      </c>
+      <c r="F88" s="0">
+        <v>1</v>
+      </c>
+      <c r="G88" s="0">
+        <v>0.43448275862068964</v>
+      </c>
+      <c r="H88" s="0">
+        <v>0.60576923076923073</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D89" s="0">
+        <v>45.440251572327043</v>
+      </c>
+      <c r="E89" s="0">
+        <v>0.46540880503144655</v>
+      </c>
+      <c r="F89" s="0">
+        <v>1</v>
+      </c>
+      <c r="G89" s="0">
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="H89" s="0">
+        <v>0.58536585365853655</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D90" s="0">
+        <v>45.440251572327043</v>
+      </c>
+      <c r="E90" s="0">
+        <v>0.46540880503144655</v>
+      </c>
+      <c r="F90" s="0">
+        <v>1</v>
+      </c>
+      <c r="G90" s="0">
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="H90" s="0">
+        <v>0.58536585365853655</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="D91" s="0">
+        <v>28.232704402515722</v>
+      </c>
+      <c r="E91" s="0">
+        <v>0.57861635220125784</v>
+      </c>
+      <c r="F91" s="0">
+        <v>1</v>
+      </c>
+      <c r="G91" s="0">
+        <v>0.53793103448275859</v>
+      </c>
+      <c r="H91" s="0">
+        <v>0.69955156950672648</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D92" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E92" s="0">
+        <v>0.4088050314465409</v>
+      </c>
+      <c r="F92" s="0">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H92" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="0">
+        <v>56.761006289308177</v>
+      </c>
+      <c r="E93" s="0">
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="F93" s="0">
+        <v>1</v>
+      </c>
+      <c r="G93" s="0">
+        <v>0.32624113475177308</v>
+      </c>
+      <c r="H93" s="0">
+        <v>0.49197860962566847</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D94" s="0">
+        <v>55.572327044025158</v>
+      </c>
+      <c r="E94" s="0">
+        <v>0.4088050314465409</v>
+      </c>
+      <c r="F94" s="0">
+        <v>1</v>
+      </c>
+      <c r="G94" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H94" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" s="0">
+        <v>54.39622641509434</v>
+      </c>
+      <c r="E95" s="0">
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="F95" s="0">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="G95" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H95" s="0">
+        <v>0.49735449735449727</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="D96" s="0">
+        <v>28.232704402515722</v>
+      </c>
+      <c r="E96" s="0">
+        <v>0.54088050314465408</v>
+      </c>
+      <c r="F96" s="0">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G96" s="0">
+        <v>0.50354609929078009</v>
+      </c>
+      <c r="H96" s="0">
+        <v>0.66046511627906979</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D97" s="0">
+        <v>61.641509433962263</v>
+      </c>
+      <c r="E97" s="0">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="F97" s="0">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G97" s="0">
+        <v>0.29655172413793102</v>
+      </c>
+      <c r="H97" s="0">
+        <v>0.45026178010471202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D98" s="0">
+        <v>59.176100628930818</v>
+      </c>
+      <c r="E98" s="0">
+        <v>0.3522012578616352</v>
+      </c>
+      <c r="F98" s="0">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G98" s="0">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="H98" s="0">
+        <v>0.46632124352331605</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" s="0">
+        <v>61.641509433962263</v>
+      </c>
+      <c r="E99" s="0">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="F99" s="0">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G99" s="0">
+        <v>0.29655172413793102</v>
+      </c>
+      <c r="H99" s="0">
+        <v>0.45026178010471202</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" s="0">
+        <v>62.893081761006286</v>
+      </c>
+      <c r="E100" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F100" s="0">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G100" s="0">
+        <v>0.28965517241379313</v>
+      </c>
+      <c r="H100" s="0">
+        <v>0.44210526315789483</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="D101" s="0">
+        <v>31.70440251572327</v>
+      </c>
+      <c r="E101" s="0">
+        <v>0.50314465408805031</v>
+      </c>
+      <c r="F101" s="0">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G101" s="0">
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="H101" s="0">
+        <v>0.63926940639269414</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D102" s="0">
+        <v>65.433962264150949</v>
+      </c>
+      <c r="E102" s="0">
+        <v>0.25786163522012578</v>
+      </c>
+      <c r="F102" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G102" s="0">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="H102" s="0">
+        <v>0.36559139784946232</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="0">
+        <v>65.433962264150949</v>
+      </c>
+      <c r="E103" s="0">
+        <v>0.25786163522012578</v>
+      </c>
+      <c r="F103" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G103" s="0">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="H103" s="0">
+        <v>0.36559139784946232</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D104" s="0">
+        <v>65.433962264150949</v>
+      </c>
+      <c r="E104" s="0">
+        <v>0.25786163522012578</v>
+      </c>
+      <c r="F104" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G104" s="0">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="H104" s="0">
+        <v>0.36559139784946232</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D105" s="0">
+        <v>65.433962264150949</v>
+      </c>
+      <c r="E105" s="0">
+        <v>0.25786163522012578</v>
+      </c>
+      <c r="F105" s="0">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="G105" s="0">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="H105" s="0">
+        <v>0.36559139784946232</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="D106" s="0">
+        <v>7.2704402515723272</v>
+      </c>
+      <c r="E106" s="0">
+        <v>0.67295597484276726</v>
+      </c>
+      <c r="F106" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G106" s="0">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="H106" s="0">
+        <v>0.79527559055118102</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D107" s="0">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E107" s="0">
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="F107" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G107" s="0">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="H107" s="0">
+        <v>0.95833333333333326</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D108" s="0">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E108" s="0">
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="F108" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G108" s="0">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="H108" s="0">
+        <v>0.95833333333333326</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D109" s="0">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E109" s="0">
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="F109" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G109" s="0">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="H109" s="0">
+        <v>0.95833333333333326</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D110" s="0">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="E110" s="0">
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="F110" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G110" s="0">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="H110" s="0">
+        <v>0.95833333333333326</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="D111" s="0">
+        <v>0.3081761006289308</v>
+      </c>
+      <c r="E111" s="0">
+        <v>0.9308176100628931</v>
+      </c>
+      <c r="F111" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G111" s="0">
+        <v>0.98581560283687941</v>
+      </c>
+      <c r="H111" s="0">
+        <v>0.96193771626297564</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D112" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E112" s="0">
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="F112" s="0">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G112" s="0">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="H112" s="0">
+        <v>0.50261780104712039</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D113" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E113" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F113" s="0">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="G113" s="0">
+        <v>0.3475177304964539</v>
+      </c>
+      <c r="H113" s="0">
+        <v>0.51308900523560208</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D114" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E114" s="0">
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="F114" s="0">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G114" s="0">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="H114" s="0">
+        <v>0.50261780104712039</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E115" s="0">
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="F115" s="0">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="G115" s="0">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="H115" s="0">
+        <v>0.50261780104712039</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="D116" s="0">
+        <v>26.572327044025158</v>
+      </c>
+      <c r="E116" s="0">
+        <v>0.54088050314465408</v>
+      </c>
+      <c r="F116" s="0">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G116" s="0">
+        <v>0.51063829787234039</v>
+      </c>
+      <c r="H116" s="0">
+        <v>0.66359447004608285</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D117" s="0">
+        <v>57.962264150943398</v>
+      </c>
+      <c r="E117" s="0">
+        <v>0.38364779874213839</v>
+      </c>
+      <c r="F117" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G117" s="0">
+        <v>0.34459459459459457</v>
+      </c>
+      <c r="H117" s="0">
+        <v>0.51000000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D118" s="0">
+        <v>56.761006289308177</v>
+      </c>
+      <c r="E118" s="0">
+        <v>0.38993710691823902</v>
+      </c>
+      <c r="F118" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G118" s="0">
+        <v>0.35135135135135137</v>
+      </c>
+      <c r="H118" s="0">
+        <v>0.51741293532338306</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D119" s="0">
+        <v>57.962264150943398</v>
+      </c>
+      <c r="E119" s="0">
+        <v>0.38364779874213839</v>
+      </c>
+      <c r="F119" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G119" s="0">
+        <v>0.34459459459459457</v>
+      </c>
+      <c r="H119" s="0">
+        <v>0.51000000000000001</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D120" s="0">
+        <v>57.962264150943398</v>
+      </c>
+      <c r="E120" s="0">
+        <v>0.38364779874213839</v>
+      </c>
+      <c r="F120" s="0">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G120" s="0">
+        <v>0.34459459459459457</v>
+      </c>
+      <c r="H120" s="0">
+        <v>0.51000000000000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D121" s="0">
+        <v>36.327044025157235</v>
+      </c>
+      <c r="E121" s="0">
+        <v>0.48427672955974843</v>
+      </c>
+      <c r="F121" s="0">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G121" s="0">
+        <v>0.46621621621621623</v>
+      </c>
+      <c r="H121" s="0">
+        <v>0.6272727272727272</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" s="0">
+        <v>50.943396226415096</v>
+      </c>
+      <c r="E122" s="0">
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="F122" s="0">
+        <v>1</v>
+      </c>
+      <c r="G122" s="0">
+        <v>0.36619718309859156</v>
+      </c>
+      <c r="H122" s="0">
+        <v>0.53608247422680411</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" s="0">
+        <v>50.943396226415096</v>
+      </c>
+      <c r="E123" s="0">
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="F123" s="0">
+        <v>1</v>
+      </c>
+      <c r="G123" s="0">
+        <v>0.36619718309859156</v>
+      </c>
+      <c r="H123" s="0">
+        <v>0.53608247422680411</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D124" s="0">
+        <v>50.943396226415096</v>
+      </c>
+      <c r="E124" s="0">
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="F124" s="0">
+        <v>1</v>
+      </c>
+      <c r="G124" s="0">
+        <v>0.36619718309859156</v>
+      </c>
+      <c r="H124" s="0">
+        <v>0.53608247422680411</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D125" s="0">
+        <v>50.943396226415096</v>
+      </c>
+      <c r="E125" s="0">
+        <v>0.43396226415094341</v>
+      </c>
+      <c r="F125" s="0">
+        <v>1</v>
+      </c>
+      <c r="G125" s="0">
+        <v>0.36619718309859156</v>
+      </c>
+      <c r="H125" s="0">
+        <v>0.53608247422680411</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="D126" s="0">
+        <v>8.1509433962264151</v>
+      </c>
+      <c r="E126" s="0">
+        <v>0.68553459119496851</v>
+      </c>
+      <c r="F126" s="0">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="G126" s="0">
+        <v>0.69718309859154926</v>
+      </c>
+      <c r="H126" s="0">
+        <v>0.79838709677419362</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D127" s="0">
+        <v>2.5157232704402515</v>
+      </c>
+      <c r="E127" s="0">
+        <v>0.79874213836477992</v>
+      </c>
+      <c r="F127" s="0">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G127" s="0">
+        <v>0.82432432432432434</v>
+      </c>
+      <c r="H127" s="0">
+        <v>0.88405797101449268</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D128" s="0">
+        <v>2.2704402515723272</v>
+      </c>
+      <c r="E128" s="0">
+        <v>0.80503144654088055</v>
+      </c>
+      <c r="F128" s="0">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G128" s="0">
+        <v>0.83108108108108103</v>
+      </c>
+      <c r="H128" s="0">
+        <v>0.88808664259927794</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D129" s="0">
+        <v>2.5157232704402515</v>
+      </c>
+      <c r="E129" s="0">
+        <v>0.79874213836477992</v>
+      </c>
+      <c r="F129" s="0">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G129" s="0">
+        <v>0.82432432432432434</v>
+      </c>
+      <c r="H129" s="0">
+        <v>0.88405797101449268</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D130" s="0">
+        <v>3.0440251572327046</v>
+      </c>
+      <c r="E130" s="0">
+        <v>0.78616352201257866</v>
+      </c>
+      <c r="F130" s="0">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="G130" s="0">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="H130" s="0">
+        <v>0.87591240875912413</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="D131" s="0">
+        <v>12.735849056603774</v>
+      </c>
+      <c r="E131" s="0">
+        <v>0.67924528301886788</v>
+      </c>
+      <c r="F131" s="0">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G131" s="0">
+        <v>0.67567567567567566</v>
+      </c>
+      <c r="H131" s="0">
+        <v>0.79681274900398402</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D132" s="0">
+        <v>3.6226415094339623</v>
+      </c>
+      <c r="E132" s="0">
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="F132" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G132" s="0">
+        <v>0.79865771812080533</v>
+      </c>
+      <c r="H132" s="0">
+        <v>0.86861313868613121</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D133" s="0">
+        <v>2.0377358490566038</v>
+      </c>
+      <c r="E133" s="0">
+        <v>0.82389937106918243</v>
+      </c>
+      <c r="F133" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G133" s="0">
+        <v>0.84563758389261745</v>
+      </c>
+      <c r="H133" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D134" s="0">
+        <v>3.6226415094339623</v>
+      </c>
+      <c r="E134" s="0">
+        <v>0.77358490566037741</v>
+      </c>
+      <c r="F134" s="0">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G134" s="0">
+        <v>0.79865771812080533</v>
+      </c>
+      <c r="H134" s="0">
+        <v>0.86861313868613121</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D135" s="0">
+        <v>3.3270440251572326</v>
+      </c>
+      <c r="E135" s="0">
+        <v>0.76729559748427678</v>
+      </c>
+      <c r="F135" s="0">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="G135" s="0">
+        <v>0.79865771812080533</v>
+      </c>
+      <c r="H135" s="0">
+        <v>0.86545454545454559</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="0">
+        <v>0.40251572327044027</v>
+      </c>
+      <c r="E136" s="0">
+        <v>0.92452830188679247</v>
+      </c>
+      <c r="F136" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="G136" s="0">
+        <v>0.93288590604026844</v>
+      </c>
+      <c r="H136" s="0">
+        <v>0.95862068965517244</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D137" s="0">
+        <v>33.515723270440255</v>
+      </c>
+      <c r="E137" s="0">
+        <v>0.54088050314465408</v>
+      </c>
+      <c r="F137" s="0">
+        <v>1</v>
+      </c>
+      <c r="G137" s="0">
+        <v>0.47857142857142859</v>
+      </c>
+      <c r="H137" s="0">
+        <v>0.64734299516908211</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D138" s="0">
+        <v>31.70440251572327</v>
+      </c>
+      <c r="E138" s="0">
+        <v>0.55345911949685533</v>
+      </c>
+      <c r="F138" s="0">
+        <v>1</v>
+      </c>
+      <c r="G138" s="0">
+        <v>0.49285714285714288</v>
+      </c>
+      <c r="H138" s="0">
+        <v>0.66028708133971292</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D139" s="0">
+        <v>33.515723270440255</v>
+      </c>
+      <c r="E139" s="0">
+        <v>0.54088050314465408</v>
+      </c>
+      <c r="F139" s="0">
+        <v>1</v>
+      </c>
+      <c r="G139" s="0">
+        <v>0.47857142857142859</v>
+      </c>
+      <c r="H139" s="0">
+        <v>0.64734299516908211</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D140" s="0">
+        <v>33.515723270440255</v>
+      </c>
+      <c r="E140" s="0">
+        <v>0.54088050314465408</v>
+      </c>
+      <c r="F140" s="0">
+        <v>1</v>
+      </c>
+      <c r="G140" s="0">
+        <v>0.47857142857142859</v>
+      </c>
+      <c r="H140" s="0">
+        <v>0.64734299516908211</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="D141" s="0">
+        <v>20.433962264150942</v>
+      </c>
+      <c r="E141" s="0">
+        <v>0.64150943396226412</v>
+      </c>
+      <c r="F141" s="0">
+        <v>1</v>
+      </c>
+      <c r="G141" s="0">
+        <v>0.59285714285714286</v>
+      </c>
+      <c r="H141" s="0">
+        <v>0.74439461883408065</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D142" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E142" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F142" s="0">
+        <v>0.9375</v>
+      </c>
+      <c r="G142" s="0">
+        <v>0.35664335664335667</v>
+      </c>
+      <c r="H142" s="0">
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D143" s="0">
+        <v>49.817610062893081</v>
+      </c>
+      <c r="E143" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F143" s="0">
+        <v>0.875</v>
+      </c>
+      <c r="G143" s="0">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="H143" s="0">
+        <v>0.52791878172588835</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D144" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E144" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F144" s="0">
+        <v>0.9375</v>
+      </c>
+      <c r="G144" s="0">
+        <v>0.35664335664335667</v>
+      </c>
+      <c r="H144" s="0">
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D145" s="0">
+        <v>52.081761006289305</v>
+      </c>
+      <c r="E145" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F145" s="0">
+        <v>0.9375</v>
+      </c>
+      <c r="G145" s="0">
+        <v>0.35664335664335667</v>
+      </c>
+      <c r="H145" s="0">
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="D146" s="0">
+        <v>30.817610062893081</v>
+      </c>
+      <c r="E146" s="0">
+        <v>0.5220125786163522</v>
+      </c>
+      <c r="F146" s="0">
+        <v>0.8125</v>
+      </c>
+      <c r="G146" s="0">
+        <v>0.48951048951048953</v>
+      </c>
+      <c r="H146" s="0">
+        <v>0.64814814814814814</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D147" s="0">
+        <v>46.515723270440255</v>
+      </c>
+      <c r="E147" s="0">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="F147" s="0">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G147" s="0">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="H147" s="0">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D148" s="0">
+        <v>46.515723270440255</v>
+      </c>
+      <c r="E148" s="0">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="F148" s="0">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G148" s="0">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="H148" s="0">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D149" s="0">
+        <v>46.515723270440255</v>
+      </c>
+      <c r="E149" s="0">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="F149" s="0">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G149" s="0">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="H149" s="0">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D150" s="0">
+        <v>46.515723270440255</v>
+      </c>
+      <c r="E150" s="0">
+        <v>0.37106918238993708</v>
+      </c>
+      <c r="F150" s="0">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G150" s="0">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="H150" s="0">
+        <v>0.45652173913043481</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="D151" s="0">
+        <v>41.264150943396224</v>
+      </c>
+      <c r="E151" s="0">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="F151" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="G151" s="0">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="H151" s="0">
+        <v>0.50793650793650791</v>
       </c>
     </row>
   </sheetData>
@@ -4656,14 +8827,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="true"/>
+    <col min="2" max="2" width="16.5703125" customWidth="true"/>
+    <col min="3" max="3" width="8.28515625" customWidth="true"/>
+    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="5" max="8" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4689,7 +8860,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4715,7 +8886,7 @@
         <v>0.6607142857142857</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +8912,7 @@
         <v>0.64864864864864857</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4767,7 +8938,7 @@
         <v>0.6607142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -4793,7 +8964,7 @@
         <v>0.67841409691629961</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -4819,7 +8990,7 @@
         <v>0.84962406015037595</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -4845,7 +9016,7 @@
         <v>0.94661921708185059</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -4871,7 +9042,7 @@
         <v>0.96140350877192982</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -4897,7 +9068,7 @@
         <v>0.94661921708185059</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -4923,7 +9094,7 @@
         <v>0.90370370370370368</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -4949,7 +9120,7 @@
         <v>0.95501730103806226</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -4975,7 +9146,7 @@
         <v>0.64888888888888885</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -5001,7 +9172,7 @@
         <v>0.64888888888888885</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -5027,7 +9198,7 @@
         <v>0.64888888888888885</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -5053,7 +9224,7 @@
         <v>0.70085470085470092</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -5079,7 +9250,7 @@
         <v>0.70940170940170943</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -5105,7 +9276,7 @@
         <v>0.7615062761506276</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -5131,7 +9302,7 @@
         <v>0.7615062761506276</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -5157,7 +9328,7 @@
         <v>0.7615062761506276</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -5183,7 +9354,7 @@
         <v>0.7615062761506276</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -5209,7 +9380,7 @@
         <v>0.76271186440677974</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -5235,7 +9406,7 @@
         <v>0.79051383399209485</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -5261,7 +9432,7 @@
         <v>0.79365079365079361</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +9458,7 @@
         <v>0.79051383399209485</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -5313,7 +9484,7 @@
         <v>0.79051383399209485</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -5339,7 +9510,7 @@
         <v>0.81147540983606559</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -5365,7 +9536,7 @@
         <v>0.76190476190476197</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -5391,7 +9562,7 @@
         <v>0.75438596491228072</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -5417,7 +9588,7 @@
         <v>0.76190476190476197</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -5443,7 +9614,7 @@
         <v>0.77966101694915257</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -5469,7 +9640,7 @@
         <v>0.87258687258687273</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -5495,7 +9666,7 @@
         <v>0.77685950413223148</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -5521,7 +9692,7 @@
         <v>0.79012345679012341</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -5547,7 +9718,7 @@
         <v>0.77685950413223148</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -5573,7 +9744,7 @@
         <v>0.75833333333333341</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -5599,7 +9770,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -5625,7 +9796,7 @@
         <v>0.81274900398406369</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -5651,7 +9822,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -5677,7 +9848,7 @@
         <v>0.81274900398406369</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -5703,7 +9874,7 @@
         <v>0.81746031746031755</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -5729,7 +9900,7 @@
         <v>0.83333333333333326</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -5755,7 +9926,7 @@
         <v>0.69264069264069261</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -5781,7 +9952,7 @@
         <v>0.64888888888888885</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -5807,7 +9978,7 @@
         <v>0.69264069264069261</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -5833,7 +10004,7 @@
         <v>0.65777777777777768</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -5859,7 +10030,7 @@
         <v>0.72340425531914898</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -5885,7 +10056,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -5911,7 +10082,7 @@
         <v>0.65437788018433185</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -5937,7 +10108,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -5963,7 +10134,7 @@
         <v>0.67272727272727262</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -5989,7 +10160,7 @@
         <v>0.67264573991031384</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -6015,7 +10186,7 @@
         <v>0.63636363636363646</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -6041,7 +10212,7 @@
         <v>0.64253393665158365</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -6067,7 +10238,7 @@
         <v>0.63636363636363646</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -6093,7 +10264,7 @@
         <v>0.64253393665158365</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -6119,7 +10290,7 @@
         <v>0.79508196721311486</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -6145,7 +10316,7 @@
         <v>0.91636363636363638</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -6171,7 +10342,7 @@
         <v>0.92198581560283699</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -6197,7 +10368,7 @@
         <v>0.91636363636363638</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -6223,7 +10394,7 @@
         <v>0.89219330855018575</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -6249,7 +10420,7 @@
         <v>0.93470790378006874</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -6275,7 +10446,7 @@
         <v>0.69603524229074887</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -6301,7 +10472,7 @@
         <v>0.69603524229074887</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -6327,7 +10498,7 @@
         <v>0.69603524229074887</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -6353,7 +10524,7 @@
         <v>0.72413793103448276</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -6379,7 +10550,7 @@
         <v>0.60663507109004744</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -6405,7 +10576,7 @@
         <v>0.75697211155378485</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -6431,7 +10602,7 @@
         <v>0.75697211155378485</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -6457,7 +10628,7 @@
         <v>0.75697211155378485</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -6483,7 +10654,7 @@
         <v>0.76679841897233203</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -6509,7 +10680,7 @@
         <v>0.68398268398268403</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -6535,7 +10706,7 @@
         <v>0.80632411067193688</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -6561,7 +10732,7 @@
         <v>0.80478087649402397</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -6587,7 +10758,7 @@
         <v>0.80632411067193688</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -6613,7 +10784,7 @@
         <v>0.80158730158730174</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -6639,7 +10810,7 @@
         <v>0.77118644067796616</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -6665,7 +10836,7 @@
         <v>0.75630252100840334</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -6691,7 +10862,7 @@
         <v>0.75630252100840334</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -6717,7 +10888,7 @@
         <v>0.75630252100840334</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -6743,7 +10914,7 @@
         <v>0.77178423236514526</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -6769,7 +10940,7 @@
         <v>0.84732824427480924</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -6795,7 +10966,7 @@
         <v>0.77235772357723576</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -6821,7 +10992,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -6847,7 +11018,7 @@
         <v>0.77235772357723576</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -6873,7 +11044,7 @@
         <v>0.74688796680497926</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -6899,7 +11070,7 @@
         <v>0.92537313432835833</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -6925,7 +11096,7 @@
         <v>0.79838709677419362</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -6951,7 +11122,7 @@
         <v>0.79838709677419362</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -6977,7 +11148,7 @@
         <v>0.79838709677419362</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -7003,7 +11174,7 @@
         <v>0.80478087649402386</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -7029,7 +11200,7 @@
         <v>0.77966101694915246</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -7055,7 +11226,7 @@
         <v>0.64220183486238536</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -7081,7 +11252,7 @@
         <v>0.59223300970873793</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -7107,7 +11278,7 @@
         <v>0.64220183486238536</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -7133,7 +11304,7 @@
         <v>0.66960352422907488</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -7159,7 +11330,7 @@
         <v>0.71748878923766823</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -7185,7 +11356,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -7211,7 +11382,7 @@
         <v>0.62385321100917435</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -7237,7 +11408,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -7263,7 +11434,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -7289,7 +11460,7 @@
         <v>0.64840182648401823</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -7315,7 +11486,7 @@
         <v>0.59534883720930232</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -7341,7 +11512,7 @@
         <v>0.59534883720930232</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -7367,7 +11538,7 @@
         <v>0.59534883720930232</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -7393,7 +11564,7 @@
         <v>0.60185185185185175</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -7419,7 +11590,7 @@
         <v>0.81422924901185778</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -7445,7 +11616,7 @@
         <v>0.8905109489051094</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -7471,7 +11642,7 @@
         <v>0.94809688581314877</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -7497,7 +11668,7 @@
         <v>0.8905109489051094</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -7523,7 +11694,7 @@
         <v>0.85714285714285721</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -7549,7 +11720,7 @@
         <v>0.99009900990099009</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -7575,7 +11746,7 @@
         <v>0.65178571428571441</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -7601,7 +11772,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -7627,7 +11798,7 @@
         <v>0.65178571428571441</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -7653,7 +11824,7 @@
         <v>0.67256637168141609</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -7679,7 +11850,7 @@
         <v>0.59154929577464788</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -7705,7 +11876,7 @@
         <v>0.7661290322580645</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -7731,7 +11902,7 @@
         <v>0.77108433734939752</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -7757,7 +11928,7 @@
         <v>0.7661290322580645</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -7783,7 +11954,7 @@
         <v>0.76113360323886636</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -7809,7 +11980,7 @@
         <v>0.73819742489270379</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -7835,7 +12006,7 @@
         <v>0.84291187739463602</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -7861,7 +12032,7 @@
         <v>0.84291187739463602</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -7887,7 +12058,7 @@
         <v>0.84291187739463602</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -7913,7 +12084,7 @@
         <v>0.83969465648854957</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -7939,7 +12110,7 @@
         <v>0.83969465648854957</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -7965,7 +12136,7 @@
         <v>0.70909090909090922</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -7991,7 +12162,7 @@
         <v>0.71493212669683248</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -8017,7 +12188,7 @@
         <v>0.70909090909090922</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -8043,7 +12214,7 @@
         <v>0.70588235294117641</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -8069,7 +12240,7 @@
         <v>0.77391304347826095</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -8095,7 +12266,7 @@
         <v>0.80158730158730152</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -8121,7 +12292,7 @@
         <v>0.81249999999999989</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -8147,7 +12318,7 @@
         <v>0.80158730158730152</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -8173,7 +12344,7 @@
         <v>0.79681274900398402</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -8199,7 +12370,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -8225,7 +12396,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -8251,7 +12422,7 @@
         <v>0.83720930232558144</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -8277,7 +12448,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -8303,7 +12474,7 @@
         <v>0.84615384615384603</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -8329,7 +12500,7 @@
         <v>0.88721804511278202</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -8355,7 +12526,7 @@
         <v>0.58937198067632846</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -8381,7 +12552,7 @@
         <v>0.56122448979591832</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -8407,7 +12578,7 @@
         <v>0.58937198067632846</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -8433,7 +12604,7 @@
         <v>0.57560975609756093</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -8459,7 +12630,7 @@
         <v>0.69158878504672905</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -8485,7 +12656,7 @@
         <v>0.59903381642512088</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -8511,7 +12682,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -8537,7 +12708,7 @@
         <v>0.59903381642512088</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -8563,7 +12734,7 @@
         <v>0.57843137254901966</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151">
       <c r="A151" t="s">
         <v>3</v>
       </c>

--- a/src/results.xlsx
+++ b/src/results.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="1540">
   <si>
     <t>Normalization function</t>
   </si>
@@ -668,6 +668,3444 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Distance function</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Distance function</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Distance function</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Distance function</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Distance function</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
+  </si>
+  <si>
+    <t>Normalization function</t>
+  </si>
+  <si>
+    <t>zscore</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>Distance function</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>euclidean</t>
+  </si>
+  <si>
+    <t>cityblock</t>
+  </si>
+  <si>
+    <t>minkowski</t>
+  </si>
+  <si>
+    <t>chebychev</t>
+  </si>
+  <si>
+    <t>mahalanobis</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>classical</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>hiphop</t>
+  </si>
+  <si>
+    <t>jazz</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>reggae</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>F-measure</t>
   </si>
   <si>
     <t>Normalization function</t>
@@ -2217,106 +5655,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>203</v>
+        <v>1349</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>207</v>
+        <v>1353</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>358</v>
+        <v>1504</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>389</v>
+        <v>1535</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>390</v>
+        <v>1536</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>391</v>
+        <v>1537</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>392</v>
+        <v>1538</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>393</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>208</v>
+        <v>1354</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>359</v>
+        <v>1505</v>
       </c>
       <c r="D2" s="0">
-        <v>55.572327044025158</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E2" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="F2" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="G2" s="0">
-        <v>0.30555555555555558</v>
+        <v>0.3125</v>
       </c>
       <c r="H2" s="0">
-        <v>0.45360824742268036</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>1355</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>359</v>
+        <v>1505</v>
       </c>
       <c r="D3" s="0">
-        <v>54.39622641509434</v>
+        <v>53.232704402515722</v>
       </c>
       <c r="E3" s="0">
-        <v>0.33962264150943394</v>
+        <v>0.34591194968553457</v>
       </c>
       <c r="F3" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="G3" s="0">
-        <v>0.3125</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="H3" s="0">
-        <v>0.46153846153846156</v>
+        <v>0.46938775510204073</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>210</v>
+        <v>1356</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>359</v>
+        <v>1505</v>
       </c>
       <c r="D4" s="0">
-        <v>55.572327044025158</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E4" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="F4" s="0">
         <v>0.59999999999999998</v>
       </c>
       <c r="G4" s="0">
-        <v>0.30555555555555558</v>
+        <v>0.3125</v>
       </c>
       <c r="H4" s="0">
-        <v>0.45360824742268036</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="AA4" t="s">
         <v>3</v>
@@ -2342,28 +5780,28 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>211</v>
+        <v>1357</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>359</v>
+        <v>1505</v>
       </c>
       <c r="D5" s="0">
         <v>54.39622641509434</v>
       </c>
       <c r="E5" s="0">
-        <v>0.33962264150943394</v>
+        <v>0.31446540880503143</v>
       </c>
       <c r="F5" s="0">
-        <v>0.59999999999999998</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="G5" s="0">
-        <v>0.3125</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H5" s="0">
-        <v>0.46153846153846156</v>
+        <v>0.44102564102564101</v>
       </c>
       <c r="L5" t="s">
         <v>5</v>
@@ -2407,28 +5845,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>212</v>
+        <v>1358</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>359</v>
+        <v>1505</v>
       </c>
       <c r="D6" s="0">
-        <v>12.176100628930818</v>
+        <v>13.308176100628931</v>
       </c>
       <c r="E6" s="0">
-        <v>0.61006289308176098</v>
+        <v>0.63522012578616349</v>
       </c>
       <c r="F6" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="G6" s="0">
-        <v>0.63194444444444442</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="H6" s="0">
-        <v>0.74590163934426235</v>
+        <v>0.7603305785123966</v>
       </c>
       <c r="I6" t="s">
         <v>198</v>
@@ -2637,13 +6075,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>1359</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>360</v>
+        <v>1506</v>
       </c>
       <c r="D7" s="3">
         <v>0.0062893081761006293</v>
@@ -2882,28 +6320,28 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>1360</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>360</v>
+        <v>1506</v>
       </c>
       <c r="D8" s="3">
-        <v>0.0062893081761006293</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>0.96855345911949686</v>
+        <v>0.97484276729559749</v>
       </c>
       <c r="F8" s="3">
         <v>0.81818181818181823</v>
       </c>
       <c r="G8" s="3">
-        <v>0.97972972972972971</v>
+        <v>0.98648648648648651</v>
       </c>
       <c r="H8" s="3">
-        <v>0.98305084745762705</v>
+        <v>0.98648648648648651</v>
       </c>
       <c r="I8" s="3">
         <v>0.36842105263157893</v>
@@ -3127,13 +6565,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>215</v>
+        <v>1361</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>360</v>
+        <v>1506</v>
       </c>
       <c r="D9" s="3">
         <v>0.0062893081761006293</v>
@@ -3372,13 +6810,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>1362</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>360</v>
+        <v>1506</v>
       </c>
       <c r="D10" s="3">
         <v>0.0062893081761006293</v>
@@ -3617,28 +7055,28 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>217</v>
+        <v>1363</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>360</v>
+        <v>1506</v>
       </c>
       <c r="D11" s="3">
-        <v>0.10062893081761007</v>
+        <v>0.025157232704402517</v>
       </c>
       <c r="E11" s="3">
-        <v>0.93710691823899372</v>
+        <v>0.96226415094339623</v>
       </c>
       <c r="F11" s="3">
-        <v>0.72727272727272729</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G11" s="3">
-        <v>0.95270270270270274</v>
+        <v>0.98648648648648651</v>
       </c>
       <c r="H11" s="3">
-        <v>0.96575342465753422</v>
+        <v>0.97986577181208057</v>
       </c>
       <c r="I11" s="3">
         <v>0.52941176470588236</v>
@@ -3862,28 +7300,28 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>1364</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>361</v>
+        <v>1507</v>
       </c>
       <c r="D12" s="3">
-        <v>46.515723270440255</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E12" s="3">
-        <v>0.4088050314465409</v>
+        <v>0.35849056603773582</v>
       </c>
       <c r="F12" s="3">
         <v>0.73333333333333328</v>
       </c>
       <c r="G12" s="3">
-        <v>0.375</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="H12" s="3">
-        <v>0.53465346534653468</v>
+        <v>0.47422680412371127</v>
       </c>
       <c r="I12" s="3">
         <v>0.73333333333333328</v>
@@ -4107,28 +7545,28 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>219</v>
+        <v>1365</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>361</v>
+        <v>1507</v>
       </c>
       <c r="D13" s="3">
-        <v>47.60377358490566</v>
+        <v>50.943396226415096</v>
       </c>
       <c r="E13" s="3">
-        <v>0.41509433962264153</v>
+        <v>0.42138364779874216</v>
       </c>
       <c r="F13" s="3">
-        <v>0.80000000000000004</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G13" s="3">
-        <v>0.375</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="H13" s="3">
-        <v>0.537313432835821</v>
+        <v>0.53535353535353536</v>
       </c>
       <c r="I13" s="3">
         <v>0.44444444444444442</v>
@@ -4352,28 +7790,28 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>220</v>
+        <v>1366</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>361</v>
+        <v>1507</v>
       </c>
       <c r="D14" s="3">
-        <v>46.515723270440255</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E14" s="3">
-        <v>0.4088050314465409</v>
+        <v>0.35849056603773582</v>
       </c>
       <c r="F14" s="3">
         <v>0.73333333333333328</v>
       </c>
       <c r="G14" s="3">
-        <v>0.375</v>
+        <v>0.31944444444444442</v>
       </c>
       <c r="H14" s="3">
-        <v>0.53465346534653468</v>
+        <v>0.47422680412371127</v>
       </c>
       <c r="I14" s="3">
         <v>0.52631578947368418</v>
@@ -4597,28 +8035,28 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>221</v>
+        <v>1367</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>361</v>
+        <v>1507</v>
       </c>
       <c r="D15" s="3">
-        <v>55.572327044025158</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E15" s="3">
-        <v>0.35849056603773582</v>
+        <v>0.36477987421383645</v>
       </c>
       <c r="F15" s="3">
         <v>0.73333333333333328</v>
       </c>
       <c r="G15" s="3">
-        <v>0.31944444444444442</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="H15" s="3">
-        <v>0.47422680412371127</v>
+        <v>0.482051282051282</v>
       </c>
       <c r="I15" s="3">
         <v>0.77777777777777779</v>
@@ -4842,28 +8280,28 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>222</v>
+        <v>1368</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>361</v>
+        <v>1507</v>
       </c>
       <c r="D16" s="3">
-        <v>8.6100628930817606</v>
+        <v>25.761006289308177</v>
       </c>
       <c r="E16" s="3">
-        <v>0.74213836477987416</v>
+        <v>0.54716981132075471</v>
       </c>
       <c r="F16" s="3">
-        <v>0.8666666666666667</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G16" s="3">
-        <v>0.72916666666666663</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="H16" s="3">
-        <v>0.83665338645418319</v>
+        <v>0.67857142857142849</v>
       </c>
       <c r="I16" s="3">
         <v>0.69230769230769229</v>
@@ -5087,13 +8525,13 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>223</v>
+        <v>1369</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>362</v>
+        <v>1508</v>
       </c>
       <c r="D17" s="3">
         <v>41.264150943396224</v>
@@ -5332,13 +8770,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>224</v>
+        <v>1370</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>362</v>
+        <v>1508</v>
       </c>
       <c r="D18" s="0">
         <v>43.327044025157235</v>
@@ -5358,13 +8796,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>225</v>
+        <v>1371</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>362</v>
+        <v>1508</v>
       </c>
       <c r="D19" s="0">
         <v>41.264150943396224</v>
@@ -5384,13 +8822,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>226</v>
+        <v>1372</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>362</v>
+        <v>1508</v>
       </c>
       <c r="D20" s="0">
         <v>39.251572327044023</v>
@@ -5410,39 +8848,39 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>227</v>
+        <v>1373</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>362</v>
+        <v>1508</v>
       </c>
       <c r="D21" s="0">
-        <v>14.490566037735849</v>
+        <v>38.264150943396224</v>
       </c>
       <c r="E21" s="0">
-        <v>0.61006289308176098</v>
+        <v>0.43396226415094341</v>
       </c>
       <c r="F21" s="0">
-        <v>0.63157894736842102</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="G21" s="0">
-        <v>0.6071428571428571</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="H21" s="0">
-        <v>0.73275862068965514</v>
+        <v>0.5544554455445545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>228</v>
+        <v>1374</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>363</v>
+        <v>1509</v>
       </c>
       <c r="D22" s="0">
         <v>44.377358490566039</v>
@@ -5462,39 +8900,39 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>229</v>
+        <v>1375</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>363</v>
+        <v>1509</v>
       </c>
       <c r="D23" s="0">
-        <v>44.377358490566039</v>
+        <v>46.515723270440255</v>
       </c>
       <c r="E23" s="0">
-        <v>0.45911949685534592</v>
+        <v>0.44654088050314467</v>
       </c>
       <c r="F23" s="0">
         <v>0.92307692307692313</v>
       </c>
       <c r="G23" s="0">
-        <v>0.4178082191780822</v>
+        <v>0.4041095890410959</v>
       </c>
       <c r="H23" s="0">
-        <v>0.58653846153846156</v>
+        <v>0.57281553398058249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>230</v>
+        <v>1376</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>363</v>
+        <v>1509</v>
       </c>
       <c r="D24" s="0">
         <v>44.377358490566039</v>
@@ -5514,13 +8952,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>231</v>
+        <v>1377</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>363</v>
+        <v>1509</v>
       </c>
       <c r="D25" s="0">
         <v>43.327044025157235</v>
@@ -5540,39 +8978,39 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>232</v>
+        <v>1378</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>363</v>
+        <v>1509</v>
       </c>
       <c r="D26" s="0">
-        <v>10.062893081761006</v>
+        <v>16.358490566037737</v>
       </c>
       <c r="E26" s="0">
-        <v>0.68553459119496851</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="F26" s="0">
-        <v>0.61538461538461542</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="G26" s="0">
-        <v>0.69178082191780821</v>
+        <v>0.63013698630136983</v>
       </c>
       <c r="H26" s="0">
-        <v>0.80158730158730163</v>
+        <v>0.76348547717842319</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>364</v>
+        <v>1510</v>
       </c>
       <c r="D27" s="0">
         <v>4.9308176100628929</v>
@@ -5592,39 +9030,39 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>234</v>
+        <v>1380</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>364</v>
+        <v>1510</v>
       </c>
       <c r="D28" s="0">
         <v>5.6603773584905657</v>
       </c>
       <c r="E28" s="0">
-        <v>0.71069182389937102</v>
+        <v>0.72327044025157228</v>
       </c>
       <c r="F28" s="0">
-        <v>0.46666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G28" s="0">
-        <v>0.73611111111111116</v>
+        <v>0.74305555555555558</v>
       </c>
       <c r="H28" s="0">
-        <v>0.82170542635658916</v>
+        <v>0.8294573643410853</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>235</v>
+        <v>1381</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>364</v>
+        <v>1510</v>
       </c>
       <c r="D29" s="0">
         <v>4.9308176100628929</v>
@@ -5644,65 +9082,65 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>236</v>
+        <v>1382</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>364</v>
+        <v>1510</v>
       </c>
       <c r="D30" s="0">
         <v>4.2515723270440251</v>
       </c>
       <c r="E30" s="0">
-        <v>0.73584905660377353</v>
+        <v>0.72327044025157228</v>
       </c>
       <c r="F30" s="0">
-        <v>0.46666666666666667</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="G30" s="0">
-        <v>0.76388888888888884</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="H30" s="0">
-        <v>0.83969465648854957</v>
+        <v>0.83206106870229013</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>237</v>
+        <v>1383</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>364</v>
+        <v>1510</v>
       </c>
       <c r="D31" s="0">
-        <v>11.09433962264151</v>
+        <v>5.2893081761006293</v>
       </c>
       <c r="E31" s="0">
-        <v>0.69811320754716977</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="F31" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G31" s="0">
-        <v>0.6875</v>
+        <v>0.78472222222222221</v>
       </c>
       <c r="H31" s="0">
-        <v>0.80487804878048774</v>
+        <v>0.87258687258687251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>238</v>
+        <v>1384</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>365</v>
+        <v>1511</v>
       </c>
       <c r="D32" s="0">
         <v>0.50943396226415094</v>
@@ -5722,39 +9160,39 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>239</v>
+        <v>1385</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>365</v>
+        <v>1511</v>
       </c>
       <c r="D33" s="0">
-        <v>0.90566037735849059</v>
+        <v>0.62893081761006286</v>
       </c>
       <c r="E33" s="0">
-        <v>0.83647798742138368</v>
+        <v>0.84905660377358494</v>
       </c>
       <c r="F33" s="0">
         <v>0.66666666666666663</v>
       </c>
       <c r="G33" s="0">
-        <v>0.8623188405797102</v>
+        <v>0.87681159420289856</v>
       </c>
       <c r="H33" s="0">
-        <v>0.9015151515151516</v>
+        <v>0.90977443609022557</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>240</v>
+        <v>1386</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>365</v>
+        <v>1511</v>
       </c>
       <c r="D34" s="0">
         <v>0.50943396226415094</v>
@@ -5774,143 +9212,143 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>241</v>
+        <v>1387</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>365</v>
+        <v>1511</v>
       </c>
       <c r="D35" s="0">
-        <v>2.2704402515723272</v>
+        <v>45.440251572327043</v>
       </c>
       <c r="E35" s="0">
-        <v>0.77987421383647804</v>
+        <v>0.32704402515723269</v>
       </c>
       <c r="F35" s="0">
-        <v>0.61904761904761907</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="G35" s="0">
-        <v>0.80434782608695654</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="H35" s="0">
-        <v>0.86381322957198448</v>
+        <v>0.43979057591623039</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>242</v>
+        <v>1388</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>365</v>
+        <v>1511</v>
       </c>
       <c r="D36" s="0">
-        <v>0.50943396226415094</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="E36" s="0">
         <v>0.88050314465408808</v>
       </c>
       <c r="F36" s="0">
-        <v>0.76190476190476186</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G36" s="0">
-        <v>0.89855072463768115</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="H36" s="0">
-        <v>0.92883895131086147</v>
+        <v>0.92988929889298888</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>243</v>
+        <v>1389</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>366</v>
+        <v>1512</v>
       </c>
       <c r="D37" s="0">
-        <v>23.40251572327044</v>
+        <v>24.176100628930818</v>
       </c>
       <c r="E37" s="0">
-        <v>0.60377358490566035</v>
+        <v>0.59748427672955973</v>
       </c>
       <c r="F37" s="0">
         <v>0.95454545454545459</v>
       </c>
       <c r="G37" s="0">
-        <v>0.54744525547445255</v>
+        <v>0.54014598540145986</v>
       </c>
       <c r="H37" s="0">
-        <v>0.70422535211267601</v>
+        <v>0.69811320754716977</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>244</v>
+        <v>1390</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>366</v>
+        <v>1512</v>
       </c>
       <c r="D38" s="0">
-        <v>24.176100628930818</v>
+        <v>25.761006289308177</v>
       </c>
       <c r="E38" s="0">
-        <v>0.61006289308176098</v>
+        <v>0.59748427672955973</v>
       </c>
       <c r="F38" s="0">
         <v>1</v>
       </c>
       <c r="G38" s="0">
-        <v>0.54744525547445255</v>
+        <v>0.53284671532846717</v>
       </c>
       <c r="H38" s="0">
-        <v>0.70754716981132082</v>
+        <v>0.69523809523809521</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>245</v>
+        <v>1391</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>366</v>
+        <v>1512</v>
       </c>
       <c r="D39" s="0">
-        <v>23.40251572327044</v>
+        <v>24.176100628930818</v>
       </c>
       <c r="E39" s="0">
-        <v>0.60377358490566035</v>
+        <v>0.59748427672955973</v>
       </c>
       <c r="F39" s="0">
         <v>0.95454545454545459</v>
       </c>
       <c r="G39" s="0">
-        <v>0.54744525547445255</v>
+        <v>0.54014598540145986</v>
       </c>
       <c r="H39" s="0">
-        <v>0.70422535211267601</v>
+        <v>0.69811320754716977</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>246</v>
+        <v>1392</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>366</v>
+        <v>1512</v>
       </c>
       <c r="D40" s="0">
         <v>24.176100628930818</v>
@@ -5930,65 +9368,65 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>247</v>
+        <v>1393</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>366</v>
+        <v>1512</v>
       </c>
       <c r="D41" s="0">
-        <v>9.566037735849056</v>
+        <v>16.358490566037737</v>
       </c>
       <c r="E41" s="0">
-        <v>0.71698113207547165</v>
+        <v>0.64150943396226412</v>
       </c>
       <c r="F41" s="0">
         <v>0.86363636363636365</v>
       </c>
       <c r="G41" s="0">
-        <v>0.69343065693430661</v>
+        <v>0.6058394160583942</v>
       </c>
       <c r="H41" s="0">
-        <v>0.80851063829787229</v>
+        <v>0.74439461883408076</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>248</v>
+        <v>1394</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>367</v>
+        <v>1513</v>
       </c>
       <c r="D42" s="0">
-        <v>41.264150943396224</v>
+        <v>43.327044025157235</v>
       </c>
       <c r="E42" s="0">
-        <v>0.44025157232704404</v>
+        <v>0.42767295597484278</v>
       </c>
       <c r="F42" s="0">
         <v>0.76470588235294112</v>
       </c>
       <c r="G42" s="0">
-        <v>0.40140845070422537</v>
+        <v>0.38732394366197181</v>
       </c>
       <c r="H42" s="0">
-        <v>0.56157635467980294</v>
+        <v>0.54726368159203975</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>249</v>
+        <v>1395</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>367</v>
+        <v>1513</v>
       </c>
       <c r="D43" s="0">
         <v>41.264150943396224</v>
@@ -6008,91 +9446,91 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>250</v>
+        <v>1396</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>367</v>
+        <v>1513</v>
       </c>
       <c r="D44" s="0">
-        <v>41.264150943396224</v>
+        <v>43.327044025157235</v>
       </c>
       <c r="E44" s="0">
-        <v>0.44025157232704404</v>
+        <v>0.42767295597484278</v>
       </c>
       <c r="F44" s="0">
         <v>0.76470588235294112</v>
       </c>
       <c r="G44" s="0">
-        <v>0.40140845070422537</v>
+        <v>0.38732394366197181</v>
       </c>
       <c r="H44" s="0">
-        <v>0.56157635467980294</v>
+        <v>0.54726368159203975</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>251</v>
+        <v>1397</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>367</v>
+        <v>1513</v>
       </c>
       <c r="D45" s="0">
-        <v>40.251572327044023</v>
+        <v>42.289308176100626</v>
       </c>
       <c r="E45" s="0">
-        <v>0.44654088050314467</v>
+        <v>0.43396226415094341</v>
       </c>
       <c r="F45" s="0">
         <v>0.76470588235294112</v>
       </c>
       <c r="G45" s="0">
-        <v>0.40845070422535212</v>
+        <v>0.39436619718309857</v>
       </c>
       <c r="H45" s="0">
-        <v>0.56862745098039214</v>
+        <v>0.55445544554455439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>252</v>
+        <v>1398</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>367</v>
+        <v>1513</v>
       </c>
       <c r="D46" s="0">
-        <v>17.666666666666668</v>
+        <v>23.40251572327044</v>
       </c>
       <c r="E46" s="0">
-        <v>0.60377358490566035</v>
+        <v>0.57861635220125784</v>
       </c>
       <c r="F46" s="0">
-        <v>0.70588235294117652</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="G46" s="0">
-        <v>0.59154929577464788</v>
+        <v>0.54929577464788737</v>
       </c>
       <c r="H46" s="0">
-        <v>0.72727272727272718</v>
+        <v>0.69955156950672648</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>253</v>
+        <v>1399</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>368</v>
+        <v>1514</v>
       </c>
       <c r="D47" s="0">
         <v>52.081761006289305</v>
@@ -6112,13 +9550,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>254</v>
+        <v>1400</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>368</v>
+        <v>1514</v>
       </c>
       <c r="D48" s="0">
         <v>52.081761006289305</v>
@@ -6138,13 +9576,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>255</v>
+        <v>1401</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>368</v>
+        <v>1514</v>
       </c>
       <c r="D49" s="0">
         <v>52.081761006289305</v>
@@ -6164,195 +9602,195 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>256</v>
+        <v>1402</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>368</v>
+        <v>1514</v>
       </c>
       <c r="D50" s="0">
-        <v>49.817610062893081</v>
+        <v>50.943396226415096</v>
       </c>
       <c r="E50" s="0">
-        <v>0.42767295597484278</v>
+        <v>0.42138364779874216</v>
       </c>
       <c r="F50" s="0">
         <v>0.90909090909090906</v>
       </c>
       <c r="G50" s="0">
-        <v>0.39189189189189189</v>
+        <v>0.38513513513513514</v>
       </c>
       <c r="H50" s="0">
-        <v>0.56038647342995163</v>
+        <v>0.55339805825242716</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>204</v>
+        <v>1350</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>257</v>
+        <v>1403</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>368</v>
+        <v>1514</v>
       </c>
       <c r="D51" s="0">
-        <v>34.440251572327043</v>
+        <v>24.962264150943398</v>
       </c>
       <c r="E51" s="0">
-        <v>0.49685534591194969</v>
+        <v>0.56603773584905659</v>
       </c>
       <c r="F51" s="0">
         <v>0.72727272727272729</v>
       </c>
       <c r="G51" s="0">
-        <v>0.47972972972972971</v>
+        <v>0.55405405405405406</v>
       </c>
       <c r="H51" s="0">
-        <v>0.63963963963963966</v>
+        <v>0.70386266094420602</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>258</v>
+        <v>1404</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>369</v>
+        <v>1515</v>
       </c>
       <c r="D52" s="0">
-        <v>60.40251572327044</v>
+        <v>61.641509433962263</v>
       </c>
       <c r="E52" s="0">
-        <v>0.24528301886792453</v>
+        <v>0.25157232704402516</v>
       </c>
       <c r="F52" s="0">
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G52" s="0">
         <v>0.20437956204379562</v>
       </c>
       <c r="H52" s="0">
-        <v>0.31818181818181823</v>
+        <v>0.32000000000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>259</v>
+        <v>1405</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>369</v>
+        <v>1515</v>
       </c>
       <c r="D53" s="0">
-        <v>61.641509433962263</v>
+        <v>60.40251572327044</v>
       </c>
       <c r="E53" s="0">
-        <v>0.25157232704402516</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="F53" s="0">
-        <v>0.54545454545454541</v>
+        <v>0.5</v>
       </c>
       <c r="G53" s="0">
         <v>0.20437956204379562</v>
       </c>
       <c r="H53" s="0">
-        <v>0.32000000000000001</v>
+        <v>0.31818181818181823</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>260</v>
+        <v>1406</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>369</v>
+        <v>1515</v>
       </c>
       <c r="D54" s="0">
-        <v>60.40251572327044</v>
+        <v>61.641509433962263</v>
       </c>
       <c r="E54" s="0">
-        <v>0.24528301886792453</v>
+        <v>0.25157232704402516</v>
       </c>
       <c r="F54" s="0">
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="G54" s="0">
         <v>0.20437956204379562</v>
       </c>
       <c r="H54" s="0">
-        <v>0.31818181818181823</v>
+        <v>0.32000000000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>261</v>
+        <v>1407</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>369</v>
+        <v>1515</v>
       </c>
       <c r="D55" s="0">
-        <v>61.641509433962263</v>
+        <v>66.723270440251568</v>
       </c>
       <c r="E55" s="0">
         <v>0.25157232704402516</v>
       </c>
       <c r="F55" s="0">
-        <v>0.54545454545454541</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G55" s="0">
-        <v>0.20437956204379562</v>
+        <v>0.18978102189781021</v>
       </c>
       <c r="H55" s="0">
-        <v>0.32000000000000001</v>
+        <v>0.30409356725146197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>262</v>
+        <v>1408</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>369</v>
+        <v>1515</v>
       </c>
       <c r="D56" s="0">
         <v>4.2515723270440251</v>
       </c>
       <c r="E56" s="0">
-        <v>0.72327044025157228</v>
+        <v>0.73584905660377353</v>
       </c>
       <c r="F56" s="0">
-        <v>0.59090909090909094</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G56" s="0">
-        <v>0.74452554744525545</v>
+        <v>0.75182481751824815</v>
       </c>
       <c r="H56" s="0">
-        <v>0.82258064516129026</v>
+        <v>0.83064516129032251</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>263</v>
+        <v>1409</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>370</v>
+        <v>1516</v>
       </c>
       <c r="D57" s="0">
         <v>0.025157232704402517</v>
@@ -6372,13 +9810,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>264</v>
+        <v>1410</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>370</v>
+        <v>1516</v>
       </c>
       <c r="D58" s="0">
         <v>0.025157232704402517</v>
@@ -6398,13 +9836,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>265</v>
+        <v>1411</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>370</v>
+        <v>1516</v>
       </c>
       <c r="D59" s="0">
         <v>0.025157232704402517</v>
@@ -6424,13 +9862,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>266</v>
+        <v>1412</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>370</v>
+        <v>1516</v>
       </c>
       <c r="D60" s="0">
         <v>0.025157232704402517</v>
@@ -6450,325 +9888,325 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>267</v>
+        <v>1413</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>370</v>
+        <v>1516</v>
       </c>
       <c r="D61" s="0">
-        <v>0.056603773584905662</v>
+        <v>0.10062893081761007</v>
       </c>
       <c r="E61" s="0">
-        <v>0.96855345911949686</v>
+        <v>0.94968553459119498</v>
       </c>
       <c r="F61" s="0">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="G61" s="0">
-        <v>0.99319727891156462</v>
+        <v>0.98639455782312924</v>
       </c>
       <c r="H61" s="0">
-        <v>0.98316498316498313</v>
+        <v>0.97315436241610742</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>268</v>
+        <v>1414</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>371</v>
+        <v>1517</v>
       </c>
       <c r="D62" s="0">
-        <v>65.433962264150949</v>
+        <v>66.723270440251568</v>
       </c>
       <c r="E62" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.32704402515723269</v>
       </c>
       <c r="F62" s="0">
         <v>0.8666666666666667</v>
       </c>
       <c r="G62" s="0">
-        <v>0.27777777777777779</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H62" s="0">
-        <v>0.43010752688172038</v>
+        <v>0.42162162162162159</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>269</v>
+        <v>1415</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>371</v>
+        <v>1517</v>
       </c>
       <c r="D63" s="0">
-        <v>65.433962264150949</v>
+        <v>64.157232704402517</v>
       </c>
       <c r="E63" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.33962264150943394</v>
       </c>
       <c r="F63" s="0">
         <v>0.8666666666666667</v>
       </c>
       <c r="G63" s="0">
-        <v>0.27777777777777779</v>
+        <v>0.28472222222222221</v>
       </c>
       <c r="H63" s="0">
-        <v>0.43010752688172038</v>
+        <v>0.43850267379679142</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>270</v>
+        <v>1416</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>371</v>
+        <v>1517</v>
       </c>
       <c r="D64" s="0">
-        <v>65.433962264150949</v>
+        <v>66.723270440251568</v>
       </c>
       <c r="E64" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.32704402515723269</v>
       </c>
       <c r="F64" s="0">
         <v>0.8666666666666667</v>
       </c>
       <c r="G64" s="0">
-        <v>0.27777777777777779</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="H64" s="0">
-        <v>0.43010752688172038</v>
+        <v>0.42162162162162159</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>271</v>
+        <v>1417</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>371</v>
+        <v>1517</v>
       </c>
       <c r="D65" s="0">
-        <v>62.893081761006286</v>
+        <v>64.157232704402517</v>
       </c>
       <c r="E65" s="0">
-        <v>0.34591194968553457</v>
+        <v>0.32704402515723269</v>
       </c>
       <c r="F65" s="0">
-        <v>0.8666666666666667</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="G65" s="0">
-        <v>0.29166666666666669</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="H65" s="0">
-        <v>0.44680851063829791</v>
+        <v>0.42780748663101609</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>272</v>
+        <v>1418</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>371</v>
+        <v>1517</v>
       </c>
       <c r="D66" s="0">
-        <v>36.327044025157235</v>
+        <v>35.377358490566039</v>
       </c>
       <c r="E66" s="0">
-        <v>0.47169811320754718</v>
+        <v>0.45283018867924529</v>
       </c>
       <c r="F66" s="0">
-        <v>0.73333333333333328</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="G66" s="0">
-        <v>0.44444444444444442</v>
+        <v>0.4375</v>
       </c>
       <c r="H66" s="0">
-        <v>0.60377358490566035</v>
+        <v>0.59154929577464788</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>273</v>
+        <v>1419</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>372</v>
+        <v>1518</v>
       </c>
       <c r="D67" s="0">
-        <v>55.572327044025158</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E67" s="0">
-        <v>0.4088050314465409</v>
+        <v>0.41509433962264153</v>
       </c>
       <c r="F67" s="0">
         <v>1</v>
       </c>
       <c r="G67" s="0">
-        <v>0.3380281690140845</v>
+        <v>0.34507042253521125</v>
       </c>
       <c r="H67" s="0">
-        <v>0.50526315789473686</v>
+        <v>0.51308900523560208</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>274</v>
+        <v>1420</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>372</v>
+        <v>1518</v>
       </c>
       <c r="D68" s="0">
-        <v>56.761006289308177</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E68" s="0">
-        <v>0.40251572327044027</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F68" s="0">
         <v>1</v>
       </c>
       <c r="G68" s="0">
-        <v>0.33098591549295775</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="H68" s="0">
-        <v>0.49735449735449738</v>
+        <v>0.50526315789473686</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>275</v>
+        <v>1421</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>372</v>
+        <v>1518</v>
       </c>
       <c r="D69" s="0">
-        <v>55.572327044025158</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E69" s="0">
-        <v>0.4088050314465409</v>
+        <v>0.41509433962264153</v>
       </c>
       <c r="F69" s="0">
         <v>1</v>
       </c>
       <c r="G69" s="0">
-        <v>0.3380281690140845</v>
+        <v>0.34507042253521125</v>
       </c>
       <c r="H69" s="0">
-        <v>0.50526315789473686</v>
+        <v>0.51308900523560208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>276</v>
+        <v>1422</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>372</v>
+        <v>1518</v>
       </c>
       <c r="D70" s="0">
-        <v>53.232704402515722</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E70" s="0">
-        <v>0.42138364779874216</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F70" s="0">
         <v>1</v>
       </c>
       <c r="G70" s="0">
-        <v>0.352112676056338</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="H70" s="0">
-        <v>0.52083333333333326</v>
+        <v>0.50526315789473686</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>277</v>
+        <v>1423</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>372</v>
+        <v>1518</v>
       </c>
       <c r="D71" s="0">
-        <v>25.761006289308177</v>
+        <v>19.723270440251572</v>
       </c>
       <c r="E71" s="0">
-        <v>0.55974842767295596</v>
+        <v>0.59748427672955973</v>
       </c>
       <c r="F71" s="0">
-        <v>0.82352941176470584</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="G71" s="0">
-        <v>0.528169014084507</v>
+        <v>0.57746478873239437</v>
       </c>
       <c r="H71" s="0">
-        <v>0.68181818181818177</v>
+        <v>0.7192982456140351</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>278</v>
+        <v>1424</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>373</v>
+        <v>1519</v>
       </c>
       <c r="D72" s="0">
-        <v>53.232704402515722</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E72" s="0">
-        <v>0.39622641509433965</v>
+        <v>0.38993710691823902</v>
       </c>
       <c r="F72" s="0">
         <v>0.88235294117647056</v>
       </c>
       <c r="G72" s="0">
-        <v>0.3380281690140845</v>
+        <v>0.33098591549295775</v>
       </c>
       <c r="H72" s="0">
-        <v>0.5</v>
+        <v>0.49214659685863871</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>279</v>
+        <v>1425</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>373</v>
+        <v>1519</v>
       </c>
       <c r="D73" s="0">
         <v>55.572327044025158</v>
@@ -6788,169 +10226,169 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>280</v>
+        <v>1426</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>373</v>
+        <v>1519</v>
       </c>
       <c r="D74" s="0">
-        <v>53.232704402515722</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E74" s="0">
-        <v>0.39622641509433965</v>
+        <v>0.38993710691823902</v>
       </c>
       <c r="F74" s="0">
         <v>0.88235294117647056</v>
       </c>
       <c r="G74" s="0">
-        <v>0.3380281690140845</v>
+        <v>0.33098591549295775</v>
       </c>
       <c r="H74" s="0">
-        <v>0.5</v>
+        <v>0.49214659685863871</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>281</v>
+        <v>1427</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>373</v>
+        <v>1519</v>
       </c>
       <c r="D75" s="0">
-        <v>53.232704402515722</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E75" s="0">
-        <v>0.39622641509433965</v>
+        <v>0.38364779874213839</v>
       </c>
       <c r="F75" s="0">
         <v>0.88235294117647056</v>
       </c>
       <c r="G75" s="0">
-        <v>0.3380281690140845</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="H75" s="0">
-        <v>0.5</v>
+        <v>0.48421052631578942</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>282</v>
+        <v>1428</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>373</v>
+        <v>1519</v>
       </c>
       <c r="D76" s="0">
-        <v>45.440251572327043</v>
+        <v>22.641509433962263</v>
       </c>
       <c r="E76" s="0">
-        <v>0.44025157232704404</v>
+        <v>0.59748427672955973</v>
       </c>
       <c r="F76" s="0">
         <v>0.88235294117647056</v>
       </c>
       <c r="G76" s="0">
-        <v>0.38732394366197181</v>
+        <v>0.56338028169014087</v>
       </c>
       <c r="H76" s="0">
-        <v>0.55276381909547734</v>
+        <v>0.71428571428571419</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>283</v>
+        <v>1429</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>374</v>
+        <v>1520</v>
       </c>
       <c r="D77" s="0">
-        <v>1.0628930817610063</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="E77" s="0">
-        <v>0.80503144654088055</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="F77" s="0">
         <v>0.52631578947368418</v>
       </c>
       <c r="G77" s="0">
-        <v>0.84285714285714286</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="H77" s="0">
-        <v>0.88389513108614226</v>
+        <v>0.88805970149253721</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>284</v>
+        <v>1430</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>374</v>
+        <v>1520</v>
       </c>
       <c r="D78" s="0">
-        <v>1.0628930817610063</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="E78" s="0">
-        <v>0.80503144654088055</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="F78" s="0">
         <v>0.52631578947368418</v>
       </c>
       <c r="G78" s="0">
-        <v>0.84285714285714286</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="H78" s="0">
-        <v>0.88389513108614226</v>
+        <v>0.88805970149253721</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>285</v>
+        <v>1431</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>374</v>
+        <v>1520</v>
       </c>
       <c r="D79" s="0">
-        <v>1.0628930817610063</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="E79" s="0">
-        <v>0.80503144654088055</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="F79" s="0">
         <v>0.52631578947368418</v>
       </c>
       <c r="G79" s="0">
-        <v>0.84285714285714286</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="H79" s="0">
-        <v>0.88389513108614226</v>
+        <v>0.88805970149253721</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>286</v>
+        <v>1432</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>374</v>
+        <v>1520</v>
       </c>
       <c r="D80" s="0">
         <v>1.4150943396226414</v>
@@ -6970,169 +10408,169 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>287</v>
+        <v>1433</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>374</v>
+        <v>1520</v>
       </c>
       <c r="D81" s="0">
-        <v>4.2515723270440251</v>
+        <v>3.3270440251572326</v>
       </c>
       <c r="E81" s="0">
-        <v>0.76100628930817615</v>
+        <v>0.76729559748427678</v>
       </c>
       <c r="F81" s="0">
-        <v>0.68421052631578949</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="G81" s="0">
-        <v>0.77142857142857146</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="H81" s="0">
-        <v>0.85039370078740162</v>
+        <v>0.85603112840466911</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>288</v>
+        <v>1434</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>375</v>
+        <v>1521</v>
       </c>
       <c r="D82" s="0">
-        <v>55.572327044025158</v>
+        <v>42.289308176100626</v>
       </c>
       <c r="E82" s="0">
-        <v>0.37106918238993708</v>
+        <v>0.44654088050314467</v>
       </c>
       <c r="F82" s="0">
         <v>0.72727272727272729</v>
       </c>
       <c r="G82" s="0">
-        <v>0.34459459459459457</v>
+        <v>0.42567567567567566</v>
       </c>
       <c r="H82" s="0">
-        <v>0.50495049504950495</v>
+        <v>0.58878504672897203</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>289</v>
+        <v>1435</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>375</v>
+        <v>1521</v>
       </c>
       <c r="D83" s="0">
-        <v>16.358490566037737</v>
+        <v>20.433962264150942</v>
       </c>
       <c r="E83" s="0">
-        <v>0.65408805031446537</v>
+        <v>0.60377358490566035</v>
       </c>
       <c r="F83" s="0">
-        <v>0.81818181818181823</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="G83" s="0">
-        <v>0.64189189189189189</v>
+        <v>0.59459459459459463</v>
       </c>
       <c r="H83" s="0">
-        <v>0.77551020408163274</v>
+        <v>0.7364016736401674</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>290</v>
+        <v>1436</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>375</v>
+        <v>1521</v>
       </c>
       <c r="D84" s="0">
-        <v>55.572327044025158</v>
+        <v>42.289308176100626</v>
       </c>
       <c r="E84" s="0">
-        <v>0.37106918238993708</v>
+        <v>0.44654088050314467</v>
       </c>
       <c r="F84" s="0">
         <v>0.72727272727272729</v>
       </c>
       <c r="G84" s="0">
-        <v>0.34459459459459457</v>
+        <v>0.42567567567567566</v>
       </c>
       <c r="H84" s="0">
-        <v>0.50495049504950495</v>
+        <v>0.58878504672897203</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>291</v>
+        <v>1437</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>375</v>
+        <v>1521</v>
       </c>
       <c r="D85" s="0">
-        <v>59.176100628930818</v>
+        <v>57.962264150943398</v>
       </c>
       <c r="E85" s="0">
-        <v>0.3522012578616352</v>
+        <v>0.35849056603773582</v>
       </c>
       <c r="F85" s="0">
         <v>0.72727272727272729</v>
       </c>
       <c r="G85" s="0">
-        <v>0.32432432432432434</v>
+        <v>0.33108108108108109</v>
       </c>
       <c r="H85" s="0">
-        <v>0.48241206030150757</v>
+        <v>0.48999999999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>292</v>
+        <v>1438</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>375</v>
+        <v>1521</v>
       </c>
       <c r="D86" s="0">
-        <v>0.22641509433962265</v>
+        <v>0.3081761006289308</v>
       </c>
       <c r="E86" s="0">
-        <v>0.8867924528301887</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="F86" s="0">
-        <v>0.45454545454545453</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="G86" s="0">
-        <v>0.91891891891891897</v>
+        <v>0.92567567567567566</v>
       </c>
       <c r="H86" s="0">
-        <v>0.93793103448275872</v>
+        <v>0.94809688581314877</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>293</v>
+        <v>1439</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>376</v>
+        <v>1522</v>
       </c>
       <c r="D87" s="0">
         <v>45.440251572327043</v>
@@ -7152,39 +10590,39 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>294</v>
+        <v>1440</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>376</v>
+        <v>1522</v>
       </c>
       <c r="D88" s="0">
-        <v>42.289308176100626</v>
+        <v>44.377358490566039</v>
       </c>
       <c r="E88" s="0">
-        <v>0.48427672955974843</v>
+        <v>0.47169811320754718</v>
       </c>
       <c r="F88" s="0">
         <v>1</v>
       </c>
       <c r="G88" s="0">
-        <v>0.43448275862068964</v>
+        <v>0.4206896551724138</v>
       </c>
       <c r="H88" s="0">
-        <v>0.60576923076923073</v>
+        <v>0.59223300970873793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>295</v>
+        <v>1441</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>376</v>
+        <v>1522</v>
       </c>
       <c r="D89" s="0">
         <v>45.440251572327043</v>
@@ -7204,195 +10642,195 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>296</v>
+        <v>1442</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>376</v>
+        <v>1522</v>
       </c>
       <c r="D90" s="0">
-        <v>45.440251572327043</v>
+        <v>46.515723270440255</v>
       </c>
       <c r="E90" s="0">
-        <v>0.46540880503144655</v>
+        <v>0.45911949685534592</v>
       </c>
       <c r="F90" s="0">
         <v>1</v>
       </c>
       <c r="G90" s="0">
-        <v>0.41379310344827586</v>
+        <v>0.40689655172413791</v>
       </c>
       <c r="H90" s="0">
-        <v>0.58536585365853655</v>
+        <v>0.57843137254901966</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>297</v>
+        <v>1443</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>376</v>
+        <v>1522</v>
       </c>
       <c r="D91" s="0">
-        <v>28.232704402515722</v>
+        <v>26.572327044025158</v>
       </c>
       <c r="E91" s="0">
-        <v>0.57861635220125784</v>
+        <v>0.5911949685534591</v>
       </c>
       <c r="F91" s="0">
         <v>1</v>
       </c>
       <c r="G91" s="0">
-        <v>0.53793103448275859</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="H91" s="0">
-        <v>0.69955156950672648</v>
+        <v>0.71111111111111114</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>298</v>
+        <v>1444</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>377</v>
+        <v>1523</v>
       </c>
       <c r="D92" s="0">
-        <v>55.572327044025158</v>
+        <v>53.232704402515722</v>
       </c>
       <c r="E92" s="0">
-        <v>0.4088050314465409</v>
+        <v>0.42138364779874216</v>
       </c>
       <c r="F92" s="0">
         <v>1</v>
       </c>
       <c r="G92" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.3475177304964539</v>
       </c>
       <c r="H92" s="0">
-        <v>0.5</v>
+        <v>0.51578947368421058</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>299</v>
+        <v>1445</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>377</v>
+        <v>1523</v>
       </c>
       <c r="D93" s="0">
-        <v>56.761006289308177</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E93" s="0">
-        <v>0.40251572327044027</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F93" s="0">
         <v>1</v>
       </c>
       <c r="G93" s="0">
-        <v>0.32624113475177308</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H93" s="0">
-        <v>0.49197860962566847</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>300</v>
+        <v>1446</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>377</v>
+        <v>1523</v>
       </c>
       <c r="D94" s="0">
-        <v>55.572327044025158</v>
+        <v>53.232704402515722</v>
       </c>
       <c r="E94" s="0">
-        <v>0.4088050314465409</v>
+        <v>0.42138364779874216</v>
       </c>
       <c r="F94" s="0">
         <v>1</v>
       </c>
       <c r="G94" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.3475177304964539</v>
       </c>
       <c r="H94" s="0">
-        <v>0.5</v>
+        <v>0.51578947368421058</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>301</v>
+        <v>1447</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>377</v>
+        <v>1523</v>
       </c>
       <c r="D95" s="0">
-        <v>54.39622641509434</v>
+        <v>55.572327044025158</v>
       </c>
       <c r="E95" s="0">
-        <v>0.40251572327044027</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F95" s="0">
-        <v>0.94444444444444442</v>
+        <v>1</v>
       </c>
       <c r="G95" s="0">
         <v>0.33333333333333331</v>
       </c>
       <c r="H95" s="0">
-        <v>0.49735449735449727</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>302</v>
+        <v>1448</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>377</v>
+        <v>1523</v>
       </c>
       <c r="D96" s="0">
-        <v>28.232704402515722</v>
+        <v>24.962264150943398</v>
       </c>
       <c r="E96" s="0">
-        <v>0.54088050314465408</v>
+        <v>0.55345911949685533</v>
       </c>
       <c r="F96" s="0">
-        <v>0.83333333333333337</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G96" s="0">
-        <v>0.50354609929078009</v>
+        <v>0.52482269503546097</v>
       </c>
       <c r="H96" s="0">
-        <v>0.66046511627906979</v>
+        <v>0.67579908675799083</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>303</v>
+        <v>1449</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>378</v>
+        <v>1524</v>
       </c>
       <c r="D97" s="0">
         <v>61.641509433962263</v>
@@ -7412,39 +10850,39 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>304</v>
+        <v>1450</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>378</v>
+        <v>1524</v>
       </c>
       <c r="D98" s="0">
-        <v>59.176100628930818</v>
+        <v>60.40251572327044</v>
       </c>
       <c r="E98" s="0">
-        <v>0.3522012578616352</v>
+        <v>0.34591194968553457</v>
       </c>
       <c r="F98" s="0">
         <v>0.7857142857142857</v>
       </c>
       <c r="G98" s="0">
-        <v>0.31034482758620691</v>
+        <v>0.30344827586206896</v>
       </c>
       <c r="H98" s="0">
-        <v>0.46632124352331605</v>
+        <v>0.45833333333333337</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>305</v>
+        <v>1451</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>378</v>
+        <v>1524</v>
       </c>
       <c r="D99" s="0">
         <v>61.641509433962263</v>
@@ -7464,65 +10902,65 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>306</v>
+        <v>1452</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>378</v>
+        <v>1524</v>
       </c>
       <c r="D100" s="0">
         <v>62.893081761006286</v>
       </c>
       <c r="E100" s="0">
-        <v>0.33333333333333331</v>
+        <v>0.34591194968553457</v>
       </c>
       <c r="F100" s="0">
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G100" s="0">
-        <v>0.28965517241379313</v>
+        <v>0.29655172413793102</v>
       </c>
       <c r="H100" s="0">
-        <v>0.44210526315789483</v>
+        <v>0.45263157894736838</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>205</v>
+        <v>1351</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>307</v>
+        <v>1453</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>378</v>
+        <v>1524</v>
       </c>
       <c r="D101" s="0">
-        <v>31.70440251572327</v>
+        <v>4.9308176100628929</v>
       </c>
       <c r="E101" s="0">
-        <v>0.50314465408805031</v>
+        <v>0.74842767295597479</v>
       </c>
       <c r="F101" s="0">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G101" s="0">
-        <v>0.48275862068965519</v>
+        <v>0.76551724137931032</v>
       </c>
       <c r="H101" s="0">
-        <v>0.63926940639269414</v>
+        <v>0.84732824427480913</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>308</v>
+        <v>1454</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>379</v>
+        <v>1525</v>
       </c>
       <c r="D102" s="0">
         <v>65.433962264150949</v>
@@ -7542,13 +10980,13 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>309</v>
+        <v>1455</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>379</v>
+        <v>1525</v>
       </c>
       <c r="D103" s="0">
         <v>65.433962264150949</v>
@@ -7568,13 +11006,13 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>310</v>
+        <v>1456</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>379</v>
+        <v>1525</v>
       </c>
       <c r="D104" s="0">
         <v>65.433962264150949</v>
@@ -7594,13 +11032,13 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>311</v>
+        <v>1457</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>379</v>
+        <v>1525</v>
       </c>
       <c r="D105" s="0">
         <v>65.433962264150949</v>
@@ -7620,39 +11058,39 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>312</v>
+        <v>1458</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>379</v>
+        <v>1525</v>
       </c>
       <c r="D106" s="0">
-        <v>7.2704402515723272</v>
+        <v>6.4402515723270444</v>
       </c>
       <c r="E106" s="0">
-        <v>0.67295597484276726</v>
+        <v>0.72327044025157228</v>
       </c>
       <c r="F106" s="0">
-        <v>0.40000000000000002</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="G106" s="0">
-        <v>0.70138888888888884</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="H106" s="0">
-        <v>0.79527559055118102</v>
+        <v>0.828125</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>313</v>
+        <v>1459</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>380</v>
+        <v>1526</v>
       </c>
       <c r="D107" s="0">
         <v>0.22641509433962265</v>
@@ -7672,13 +11110,13 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>314</v>
+        <v>1460</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>380</v>
+        <v>1526</v>
       </c>
       <c r="D108" s="0">
         <v>0.22641509433962265</v>
@@ -7698,13 +11136,13 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>315</v>
+        <v>1461</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>380</v>
+        <v>1526</v>
       </c>
       <c r="D109" s="0">
         <v>0.22641509433962265</v>
@@ -7724,13 +11162,13 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>316</v>
+        <v>1462</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>380</v>
+        <v>1526</v>
       </c>
       <c r="D110" s="0">
         <v>0.22641509433962265</v>
@@ -7750,169 +11188,169 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>317</v>
+        <v>1463</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>380</v>
+        <v>1526</v>
       </c>
       <c r="D111" s="0">
-        <v>0.3081761006289308</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="E111" s="0">
         <v>0.9308176100628931</v>
       </c>
       <c r="F111" s="0">
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G111" s="0">
-        <v>0.98581560283687941</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="H111" s="0">
-        <v>0.96193771626297564</v>
+        <v>0.96167247386759569</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>318</v>
+        <v>1464</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>381</v>
+        <v>1527</v>
       </c>
       <c r="D112" s="0">
-        <v>52.081761006289305</v>
+        <v>53.232704402515722</v>
       </c>
       <c r="E112" s="0">
-        <v>0.40251572327044027</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F112" s="0">
-        <v>0.88888888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G112" s="0">
         <v>0.34042553191489361</v>
       </c>
       <c r="H112" s="0">
-        <v>0.50261780104712039</v>
+        <v>0.50526315789473686</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>319</v>
+        <v>1465</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>381</v>
+        <v>1527</v>
       </c>
       <c r="D113" s="0">
-        <v>52.081761006289305</v>
+        <v>53.232704402515722</v>
       </c>
       <c r="E113" s="0">
-        <v>0.41509433962264153</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F113" s="0">
         <v>0.94444444444444442</v>
       </c>
       <c r="G113" s="0">
-        <v>0.3475177304964539</v>
+        <v>0.34042553191489361</v>
       </c>
       <c r="H113" s="0">
-        <v>0.51308900523560208</v>
+        <v>0.50526315789473686</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>320</v>
+        <v>1466</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>381</v>
+        <v>1527</v>
       </c>
       <c r="D114" s="0">
-        <v>52.081761006289305</v>
+        <v>53.232704402515722</v>
       </c>
       <c r="E114" s="0">
-        <v>0.40251572327044027</v>
+        <v>0.4088050314465409</v>
       </c>
       <c r="F114" s="0">
-        <v>0.88888888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G114" s="0">
         <v>0.34042553191489361</v>
       </c>
       <c r="H114" s="0">
-        <v>0.50261780104712039</v>
+        <v>0.50526315789473686</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>321</v>
+        <v>1467</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>381</v>
+        <v>1527</v>
       </c>
       <c r="D115" s="0">
-        <v>52.081761006289305</v>
+        <v>54.39622641509434</v>
       </c>
       <c r="E115" s="0">
         <v>0.40251572327044027</v>
       </c>
       <c r="F115" s="0">
-        <v>0.88888888888888884</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="G115" s="0">
-        <v>0.34042553191489361</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H115" s="0">
-        <v>0.50261780104712039</v>
+        <v>0.49735449735449727</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>322</v>
+        <v>1468</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>381</v>
+        <v>1527</v>
       </c>
       <c r="D116" s="0">
-        <v>26.572327044025158</v>
+        <v>6.8490566037735849</v>
       </c>
       <c r="E116" s="0">
-        <v>0.54088050314465408</v>
+        <v>0.70440251572327039</v>
       </c>
       <c r="F116" s="0">
-        <v>0.77777777777777779</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="G116" s="0">
-        <v>0.51063829787234039</v>
+        <v>0.71631205673758869</v>
       </c>
       <c r="H116" s="0">
-        <v>0.66359447004608285</v>
+        <v>0.81124497991967881</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>323</v>
+        <v>1469</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>382</v>
+        <v>1528</v>
       </c>
       <c r="D117" s="0">
         <v>57.962264150943398</v>
@@ -7932,39 +11370,39 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>324</v>
+        <v>1470</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>382</v>
+        <v>1528</v>
       </c>
       <c r="D118" s="0">
-        <v>56.761006289308177</v>
+        <v>57.962264150943398</v>
       </c>
       <c r="E118" s="0">
-        <v>0.38993710691823902</v>
+        <v>0.38364779874213839</v>
       </c>
       <c r="F118" s="0">
         <v>0.90909090909090906</v>
       </c>
       <c r="G118" s="0">
-        <v>0.35135135135135137</v>
+        <v>0.34459459459459457</v>
       </c>
       <c r="H118" s="0">
-        <v>0.51741293532338306</v>
+        <v>0.51000000000000001</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>325</v>
+        <v>1471</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>382</v>
+        <v>1528</v>
       </c>
       <c r="D119" s="0">
         <v>57.962264150943398</v>
@@ -7984,65 +11422,65 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>326</v>
+        <v>1472</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>382</v>
+        <v>1528</v>
       </c>
       <c r="D120" s="0">
-        <v>57.962264150943398</v>
+        <v>56.761006289308177</v>
       </c>
       <c r="E120" s="0">
-        <v>0.38364779874213839</v>
+        <v>0.38993710691823902</v>
       </c>
       <c r="F120" s="0">
         <v>0.90909090909090906</v>
       </c>
       <c r="G120" s="0">
-        <v>0.34459459459459457</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="H120" s="0">
-        <v>0.51000000000000001</v>
+        <v>0.51741293532338306</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>327</v>
+        <v>1473</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>382</v>
+        <v>1528</v>
       </c>
       <c r="D121" s="0">
-        <v>36.327044025157235</v>
+        <v>27.39622641509434</v>
       </c>
       <c r="E121" s="0">
-        <v>0.48427672955974843</v>
+        <v>0.54716981132075471</v>
       </c>
       <c r="F121" s="0">
         <v>0.72727272727272729</v>
       </c>
       <c r="G121" s="0">
-        <v>0.46621621621621623</v>
+        <v>0.53378378378378377</v>
       </c>
       <c r="H121" s="0">
-        <v>0.6272727272727272</v>
+        <v>0.68695652173913035</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>328</v>
+        <v>1474</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>383</v>
+        <v>1529</v>
       </c>
       <c r="D122" s="0">
         <v>50.943396226415096</v>
@@ -8062,13 +11500,13 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>329</v>
+        <v>1475</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>383</v>
+        <v>1529</v>
       </c>
       <c r="D123" s="0">
         <v>50.943396226415096</v>
@@ -8088,13 +11526,13 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>330</v>
+        <v>1476</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>383</v>
+        <v>1529</v>
       </c>
       <c r="D124" s="0">
         <v>50.943396226415096</v>
@@ -8114,195 +11552,195 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>331</v>
+        <v>1477</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>383</v>
+        <v>1529</v>
       </c>
       <c r="D125" s="0">
-        <v>50.943396226415096</v>
+        <v>49.817610062893081</v>
       </c>
       <c r="E125" s="0">
-        <v>0.43396226415094341</v>
+        <v>0.44025157232704404</v>
       </c>
       <c r="F125" s="0">
         <v>1</v>
       </c>
       <c r="G125" s="0">
-        <v>0.36619718309859156</v>
+        <v>0.37323943661971831</v>
       </c>
       <c r="H125" s="0">
-        <v>0.53608247422680411</v>
+        <v>0.54358974358974366</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>332</v>
+        <v>1478</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>383</v>
+        <v>1529</v>
       </c>
       <c r="D126" s="0">
-        <v>8.1509433962264151</v>
+        <v>7.7044025157232703</v>
       </c>
       <c r="E126" s="0">
-        <v>0.68553459119496851</v>
+        <v>0.71698113207547165</v>
       </c>
       <c r="F126" s="0">
-        <v>0.58823529411764708</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G126" s="0">
-        <v>0.69718309859154926</v>
+        <v>0.71830985915492962</v>
       </c>
       <c r="H126" s="0">
-        <v>0.79838709677419362</v>
+        <v>0.81927710843373502</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>333</v>
+        <v>1479</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>384</v>
+        <v>1530</v>
       </c>
       <c r="D127" s="0">
-        <v>2.5157232704402515</v>
+        <v>2.7735849056603774</v>
       </c>
       <c r="E127" s="0">
-        <v>0.79874213836477992</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="F127" s="0">
         <v>0.45454545454545453</v>
       </c>
       <c r="G127" s="0">
-        <v>0.82432432432432434</v>
+        <v>0.81756756756756754</v>
       </c>
       <c r="H127" s="0">
-        <v>0.88405797101449268</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>334</v>
+        <v>1480</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>384</v>
+        <v>1530</v>
       </c>
       <c r="D128" s="0">
-        <v>2.2704402515723272</v>
+        <v>2.7735849056603774</v>
       </c>
       <c r="E128" s="0">
-        <v>0.80503144654088055</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="F128" s="0">
         <v>0.45454545454545453</v>
       </c>
       <c r="G128" s="0">
-        <v>0.83108108108108103</v>
+        <v>0.81756756756756754</v>
       </c>
       <c r="H128" s="0">
-        <v>0.88808664259927794</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>335</v>
+        <v>1481</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>384</v>
+        <v>1530</v>
       </c>
       <c r="D129" s="0">
-        <v>2.5157232704402515</v>
+        <v>2.7735849056603774</v>
       </c>
       <c r="E129" s="0">
-        <v>0.79874213836477992</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="F129" s="0">
         <v>0.45454545454545453</v>
       </c>
       <c r="G129" s="0">
-        <v>0.82432432432432434</v>
+        <v>0.81756756756756754</v>
       </c>
       <c r="H129" s="0">
-        <v>0.88405797101449268</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>336</v>
+        <v>1482</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>384</v>
+        <v>1530</v>
       </c>
       <c r="D130" s="0">
-        <v>3.0440251572327046</v>
+        <v>2.7735849056603774</v>
       </c>
       <c r="E130" s="0">
-        <v>0.78616352201257866</v>
+        <v>0.77987421383647804</v>
       </c>
       <c r="F130" s="0">
-        <v>0.45454545454545453</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="G130" s="0">
         <v>0.81081081081081086</v>
       </c>
       <c r="H130" s="0">
-        <v>0.87591240875912413</v>
+        <v>0.8727272727272728</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>337</v>
+        <v>1483</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>384</v>
+        <v>1530</v>
       </c>
       <c r="D131" s="0">
-        <v>12.735849056603774</v>
+        <v>19.723270440251572</v>
       </c>
       <c r="E131" s="0">
-        <v>0.67924528301886788</v>
+        <v>0.61006289308176098</v>
       </c>
       <c r="F131" s="0">
         <v>0.72727272727272729</v>
       </c>
       <c r="G131" s="0">
-        <v>0.67567567567567566</v>
+        <v>0.60135135135135132</v>
       </c>
       <c r="H131" s="0">
-        <v>0.79681274900398402</v>
+        <v>0.74166666666666647</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>338</v>
+        <v>1484</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>385</v>
+        <v>1531</v>
       </c>
       <c r="D132" s="0">
         <v>3.6226415094339623</v>
@@ -8322,39 +11760,39 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>339</v>
+        <v>1485</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>385</v>
+        <v>1531</v>
       </c>
       <c r="D133" s="0">
-        <v>2.0377358490566038</v>
+        <v>3.3270440251572326</v>
       </c>
       <c r="E133" s="0">
-        <v>0.82389937106918243</v>
+        <v>0.76729559748427678</v>
       </c>
       <c r="F133" s="0">
-        <v>0.5</v>
+        <v>0.29999999999999999</v>
       </c>
       <c r="G133" s="0">
-        <v>0.84563758389261745</v>
+        <v>0.79865771812080533</v>
       </c>
       <c r="H133" s="0">
-        <v>0.90000000000000002</v>
+        <v>0.86545454545454559</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>340</v>
+        <v>1486</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>385</v>
+        <v>1531</v>
       </c>
       <c r="D134" s="0">
         <v>3.6226415094339623</v>
@@ -8374,65 +11812,65 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>341</v>
+        <v>1487</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>385</v>
+        <v>1531</v>
       </c>
       <c r="D135" s="0">
-        <v>3.3270440251572326</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="E135" s="0">
-        <v>0.76729559748427678</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="F135" s="0">
-        <v>0.29999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="G135" s="0">
-        <v>0.79865771812080533</v>
+        <v>0.93288590604026844</v>
       </c>
       <c r="H135" s="0">
-        <v>0.86545454545454559</v>
+        <v>0.94880546075085315</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>342</v>
+        <v>1488</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>385</v>
+        <v>1531</v>
       </c>
       <c r="D136" s="0">
-        <v>0.40251572327044027</v>
+        <v>0.056603773584905662</v>
       </c>
       <c r="E136" s="0">
-        <v>0.92452830188679247</v>
+        <v>0.9308176100628931</v>
       </c>
       <c r="F136" s="0">
-        <v>0.80000000000000004</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="G136" s="0">
-        <v>0.93288590604026844</v>
+        <v>0.95302013422818788</v>
       </c>
       <c r="H136" s="0">
-        <v>0.95862068965517244</v>
+        <v>0.96271186440677958</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>343</v>
+        <v>1489</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>386</v>
+        <v>1532</v>
       </c>
       <c r="D137" s="0">
         <v>33.515723270440255</v>
@@ -8452,39 +11890,39 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>344</v>
+        <v>1490</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>386</v>
+        <v>1532</v>
       </c>
       <c r="D138" s="0">
-        <v>31.70440251572327</v>
+        <v>33.515723270440255</v>
       </c>
       <c r="E138" s="0">
-        <v>0.55345911949685533</v>
+        <v>0.54088050314465408</v>
       </c>
       <c r="F138" s="0">
         <v>1</v>
       </c>
       <c r="G138" s="0">
-        <v>0.49285714285714288</v>
+        <v>0.47857142857142859</v>
       </c>
       <c r="H138" s="0">
-        <v>0.66028708133971292</v>
+        <v>0.64734299516908211</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>345</v>
+        <v>1491</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>386</v>
+        <v>1532</v>
       </c>
       <c r="D139" s="0">
         <v>33.515723270440255</v>
@@ -8504,13 +11942,13 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>346</v>
+        <v>1492</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>386</v>
+        <v>1532</v>
       </c>
       <c r="D140" s="0">
         <v>33.515723270440255</v>
@@ -8530,39 +11968,39 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>347</v>
+        <v>1493</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>386</v>
+        <v>1532</v>
       </c>
       <c r="D141" s="0">
-        <v>20.433962264150942</v>
+        <v>17.0062893081761</v>
       </c>
       <c r="E141" s="0">
-        <v>0.64150943396226412</v>
+        <v>0.67295597484276726</v>
       </c>
       <c r="F141" s="0">
         <v>1</v>
       </c>
       <c r="G141" s="0">
-        <v>0.59285714285714286</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="H141" s="0">
-        <v>0.74439461883408065</v>
+        <v>0.77192982456140347</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>348</v>
+        <v>1494</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>387</v>
+        <v>1533</v>
       </c>
       <c r="D142" s="0">
         <v>52.081761006289305</v>
@@ -8582,39 +12020,39 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>349</v>
+        <v>1495</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>387</v>
+        <v>1533</v>
       </c>
       <c r="D143" s="0">
-        <v>49.817610062893081</v>
+        <v>52.081761006289305</v>
       </c>
       <c r="E143" s="0">
         <v>0.41509433962264153</v>
       </c>
       <c r="F143" s="0">
-        <v>0.875</v>
+        <v>0.9375</v>
       </c>
       <c r="G143" s="0">
-        <v>0.36363636363636365</v>
+        <v>0.35664335664335667</v>
       </c>
       <c r="H143" s="0">
-        <v>0.52791878172588835</v>
+        <v>0.52307692307692311</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>350</v>
+        <v>1496</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>387</v>
+        <v>1533</v>
       </c>
       <c r="D144" s="0">
         <v>52.081761006289305</v>
@@ -8634,65 +12072,65 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>351</v>
+        <v>1497</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>387</v>
+        <v>1533</v>
       </c>
       <c r="D145" s="0">
-        <v>52.081761006289305</v>
+        <v>47.60377358490566</v>
       </c>
       <c r="E145" s="0">
-        <v>0.41509433962264153</v>
+        <v>0.44025157232704404</v>
       </c>
       <c r="F145" s="0">
         <v>0.9375</v>
       </c>
       <c r="G145" s="0">
-        <v>0.35664335664335667</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="H145" s="0">
-        <v>0.52307692307692311</v>
+        <v>0.55276381909547734</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>352</v>
+        <v>1498</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>387</v>
+        <v>1533</v>
       </c>
       <c r="D146" s="0">
-        <v>30.817610062893081</v>
+        <v>27.39622641509434</v>
       </c>
       <c r="E146" s="0">
-        <v>0.5220125786163522</v>
+        <v>0.54716981132075471</v>
       </c>
       <c r="F146" s="0">
         <v>0.8125</v>
       </c>
       <c r="G146" s="0">
-        <v>0.48951048951048953</v>
+        <v>0.5174825174825175</v>
       </c>
       <c r="H146" s="0">
-        <v>0.64814814814814814</v>
+        <v>0.67272727272727273</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>353</v>
+        <v>1499</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>388</v>
+        <v>1534</v>
       </c>
       <c r="D147" s="0">
         <v>46.515723270440255</v>
@@ -8712,13 +12150,13 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>354</v>
+        <v>1500</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>388</v>
+        <v>1534</v>
       </c>
       <c r="D148" s="0">
         <v>46.515723270440255</v>
@@ -8738,13 +12176,13 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>355</v>
+        <v>1501</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>388</v>
+        <v>1534</v>
       </c>
       <c r="D149" s="0">
         <v>46.515723270440255</v>
@@ -8764,54 +12202,54 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>356</v>
+        <v>1502</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>388</v>
+        <v>1534</v>
       </c>
       <c r="D150" s="0">
-        <v>46.515723270440255</v>
+        <v>47.60377358490566</v>
       </c>
       <c r="E150" s="0">
-        <v>0.37106918238993708</v>
+        <v>0.37735849056603776</v>
       </c>
       <c r="F150" s="0">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="G150" s="0">
         <v>0.31111111111111112</v>
       </c>
       <c r="H150" s="0">
-        <v>0.45652173913043481</v>
+        <v>0.45901639344262302</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>206</v>
+        <v>1352</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>357</v>
+        <v>1503</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>388</v>
+        <v>1534</v>
       </c>
       <c r="D151" s="0">
-        <v>41.264150943396224</v>
+        <v>27.39622641509434</v>
       </c>
       <c r="E151" s="0">
-        <v>0.41509433962264153</v>
+        <v>0.43396226415094341</v>
       </c>
       <c r="F151" s="0">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G151" s="0">
-        <v>0.35555555555555557</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="H151" s="0">
-        <v>0.50793650793650791</v>
+        <v>0.55882352941176472</v>
       </c>
     </row>
   </sheetData>
